--- a/input/202103 EEFF LCF NEXT.xlsx
+++ b/input/202103 EEFF LCF NEXT.xlsx
@@ -8,21 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bimbfm-my.sharepoint.com/personal/lbellott_bim-bfm_com/Documents/BIM/01 Locfund Next/09 ALM/08 EEFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{8AA5FAB3-580A-4BF8-BE28-CDAA0F73C39B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C4798BA-7621-491A-A7B7-BE9A2B2A121A}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="8_{8AA5FAB3-580A-4BF8-BE28-CDAA0F73C39B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E631B05F-5C59-43F0-8110-E37FC7FA0BC5}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-10910" windowWidth="19420" windowHeight="10420" tabRatio="773" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="773" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="49" r:id="rId1"/>
     <sheet name="2021" sheetId="50" r:id="rId2"/>
     <sheet name="Desembolsos" sheetId="54" r:id="rId3"/>
-    <sheet name="CUADROS DE RESPALDO" sheetId="51" r:id="rId4"/>
-    <sheet name="CONTRY ANALYSIS" sheetId="53" r:id="rId5"/>
+    <sheet name="Datos sociales" sheetId="55" r:id="rId4"/>
+    <sheet name="CUADROS DE RESPALDO" sheetId="51" r:id="rId5"/>
+    <sheet name="CONTRY ANALYSIS" sheetId="53" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020'!$A$7:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Datos sociales'!$B$2:$S$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Datos sociales'!#REF!</definedName>
+    <definedName name="Print_AreaII" localSheetId="3">'Datos sociales'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -681,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="267">
   <si>
     <t>November</t>
   </si>
@@ -1194,28 +1201,329 @@
   </si>
   <si>
     <t>IDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFI </t>
+  </si>
+  <si>
+    <t>Data as of</t>
+  </si>
+  <si>
+    <t>Loan Portfolio (USD MM)</t>
+  </si>
+  <si>
+    <t>Number of clients</t>
+  </si>
+  <si>
+    <t>Female clients (%)</t>
+  </si>
+  <si>
+    <t>Rural clients 
+(%)</t>
+  </si>
+  <si>
+    <t>Average loan (USD)</t>
+  </si>
+  <si>
+    <t>Average loan/GDP per Capita</t>
+  </si>
+  <si>
+    <t>Write-offs 
+(%)</t>
+  </si>
+  <si>
+    <t>SPI4 audit</t>
+  </si>
+  <si>
+    <t>Endorsed to the Smart Campaign</t>
+  </si>
+  <si>
+    <t>PPI Users (a)</t>
+  </si>
+  <si>
+    <t>Social Rating</t>
+  </si>
+  <si>
+    <t>Social Rating  Report Year</t>
+  </si>
+  <si>
+    <t>Unique Clients</t>
+  </si>
+  <si>
+    <t>Banked or First Clients</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>Locfund's disbursed amount</t>
+  </si>
+  <si>
+    <t>Average loan as of the date of disbursement (Investment report)</t>
+  </si>
+  <si>
+    <t>Disbursement/Average loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaconía </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-Mujer </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASEI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>Ahsetfin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>IDH Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a </t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>60-80</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) PPI: Progress out of Poverty Index. As reported by the MFI to the PPI (http://www.progressoutofpoverty.org/ppi-users).       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) In accordance to the document elaborated by MIF/IDB in Nov 2014 named "Financial Inclusion Latin America and the Caribbean", the microfinance average of loan in the region is USD 1.800.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c)  At Least 50% of Locfund II's clients will have an average loan size to final clients of less than 40% of GDP per capita.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(d) Principal + Interest as of December 2020.             </t>
+  </si>
+  <si>
+    <t>(e) GDP: Gross domestic product per capita, GDP per capita, PPP (constant 2017 international $), source: https://data.worldbank.org/indicator/NY.GDP.PCAP.PP.KD https://www.imf.org/en/Publications/WEO/weo-database/2020/April/select-country-group</t>
+  </si>
+  <si>
+    <t>(f) HDI (Human Development Index). Source: 2019 Report, data compiled form official web site http://hdr.undp.org/en/data#</t>
+  </si>
+  <si>
+    <t>CLIENTS</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(g) Population below national poverty line (NPL). Source: https://www.cia.gov/library/publications/the-world-factbook/       </t>
+  </si>
+  <si>
+    <t>Total number of clients</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>(h) Gini Coefficient: Measure of the deviation of the distribution of income among individuals or households within a country from a perfectly equal distribution. A value of 0 represents absolute equality, a value of 100 absolute inequality. Source: https://data.worldbank.org/indicator/SI.POV.GINI</t>
+  </si>
+  <si>
+    <t>Female clients</t>
+  </si>
+  <si>
+    <t>≥ 50%</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Compliant</t>
+  </si>
+  <si>
+    <t>N/A Not Available.</t>
+  </si>
+  <si>
+    <t>Rural clients</t>
+  </si>
+  <si>
+    <t>≥ 40%</t>
+  </si>
+  <si>
+    <t>Average loan size (b)</t>
+  </si>
+  <si>
+    <t>≤ 1,500</t>
+  </si>
+  <si>
+    <t>Total clients reached by LOCFUND Next financing</t>
+  </si>
+  <si>
+    <t>≥ 200,000</t>
+  </si>
+  <si>
+    <t>In process</t>
+  </si>
+  <si>
+    <t>Avg. loan size/GDP per capita (c)</t>
+  </si>
+  <si>
+    <t>Write-offs</t>
+  </si>
+  <si>
+    <t>≤ 3%</t>
+  </si>
+  <si>
+    <t>LOCFUND NEXT COUNTRY EXPOSURE</t>
+  </si>
+  <si>
+    <t>LOCFUND NEXT PORTFOLIO (d)</t>
+  </si>
+  <si>
+    <t>GDP USD (e)</t>
+  </si>
+  <si>
+    <t>HDI (f)</t>
+  </si>
+  <si>
+    <t>% NPL (g)</t>
+  </si>
+  <si>
+    <t>Gini Coefficient (h)</t>
+  </si>
+  <si>
+    <t>OTHER COUNTRIES</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tob.</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
-    <numFmt numFmtId="175" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1372,8 +1680,156 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Cambria"/>
+      <family val="3"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF22B14C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Cambria"/>
+      <family val="3"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF22B14C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,8 +1842,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1553,255 +2027,642 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="15" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="34" fillId="0" borderId="17" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="4" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="4" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="3" fontId="36" fillId="5" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="5" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="17" fontId="34" fillId="4" borderId="17" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="34" fillId="4" borderId="17" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="4" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="4" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="5" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="5" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="4" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="34" fillId="4" borderId="0" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="4" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="4" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="4" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="18" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="18" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="37" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="3" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="3" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="3" borderId="18" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="45" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="18" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="3" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="22">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Millares 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Millares 2 2 11" xfId="21" xr:uid="{DFBF8972-6BA5-4341-8847-633E294AB5F6}"/>
     <cellStyle name="Millares 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Millares 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares 4 2" xfId="16" xr:uid="{60C80F07-E7CF-4E7D-936A-A0AD22992A3A}"/>
     <cellStyle name="Moneda 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="19" xr:uid="{1954B39A-899A-43F1-88CA-31C8D3894A5F}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{4F3B5706-A064-4899-86BD-F2F32D8318C7}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="15" xr:uid="{FF63A875-F127-4918-8D82-3AF6562DE8DA}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentaje 11" xfId="17" xr:uid="{2F2DBB7F-7624-45EE-830E-2287E50EC38C}"/>
     <cellStyle name="Porcentaje 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Porcentaje 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Porcentaje 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Porcentual 2" xfId="18" xr:uid="{1CC0E05D-12C7-44D2-88C9-A92F429C76CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1819,6 +2680,190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBhQQEBAUEBQVFBAUFBQUFhcVEBcXFRcWFRUVFBQWGBUXGygeFxkjHBUUHy8gIycpLC0sFR4xNTAqNSYrLikBCQoKDgwOGg8PGikiHiQwLiwsLCksLCwsLC0sNS0sLCwsLCkpLCwvLCwsLCwsLCwsKSwsKSwsLCwsLCwsLCwsLP/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABgUHAQMEAgj/xABREAABAwIDAggGDwQIBQUAAAABAAIDBBEFEiEGMQcTMkFRcYGRFCJhobGyCCMzNDVCUmJyc3SSs8HRFlTh8BUXU4KTlKLSJCU2dcJDg6S00//EABsBAAIDAQEBAAAAAAAAAAAAAAAEAQIDBQYH/8QAOBEAAgECBAMFBgQGAwEAAAAAAAECAxEEEiExE0FRBTJhcYEiQpGxwfAUodHhMzRSksLxQ1NiI//aAAwDAQACEQMRAD8AvFCEIAEIQgAQsIQBlYKyvLhcKGBzVGJxs3u16BqVGz4648gW8p1PctWJYZxfjN5Hq/wXAvC9p9rY6nUdJ+x5c/X9LHUoYek1m3JzBawvzhxud/ZuUmQlnDZ8krTzHxT2/wAbJnXd7CxTxGFtN3cXZ3+KFcVTyT02YpTxZXOb0Ej9F4K78ahyyX+UPOND+S5KePM9o6SB+q8PisM6eKlRX9Vl67HUpzvTUhloossbB0NC8YjU8XG48+4dZXUFA45U5nBvM3U9Z/h6V9A7RrrBYN5d7ZV8jkUY8Spr5kapHCcPznM4eKN3lP6LnoKMyu+aN5/LrTGS1jeYNA7gF5nsTsziv8TW7i2vz8fJD2Jr5fYjuE0oY0kmwCW62tMrvJ8UfzzrZV1bp3gNBtzD8ypTDsKEertX+YdSexFSt2tU4NDSkt5dfvkvVmMFHDrNLvdDnw7B9zpOxv6qYAQFleiwmDpYSGSmvN835ilSpKo7yBCEJwzBCEIAEIQgAQhCABCEIAEIQgAQhCABCEIAEIQgDCEIQAOdYKJrMcA0jFz0nd2dK6sQo3SCwdlHRbQ9ahZ8MkZ8W4+br/Fec7YxWNprLQg7c5LX/XmxzD06ctZv0N1NjT2nx/GHcR1Kbpqlsgu03Hn7UqL3BOWG7TY/zvXB7P7drYd5a15R8d199BqthYz1joxse0EW5kv4lhpjOZvI9H8FI0OLNfo7xXeY9S7nNvv1XqMRQw3atC8X5Pmn4/oIwlOhPUUU1UU+djXdI16+dQmJYbxZzN1Z6P4LqwCfRzejUdRXC7GVTBY2WGqq2ZfG2zXpcbxNqtNTjyPWPxXY13QfMf5C4cGivKD8kE/l+am66LNG8eTTrGoUds/Fo93UPzP5JzF4PN2rSnyev9v2jKnUtQkvvUlppcrSTuAulhkbpX6cpxufIpXG5zZrG73Hd5B/H0Low+iETbnlHVx/LqWuOoPtDFqj7kNZPxfLzt8NSKUlRp5ub2N0ELYmW3AC5J85KiKid9S/KzkDu6z+i6JM1SbNuIQdT8rqUjBThgAaLBMTovGpUoezRWmnvW5L/wA+PMopcP2nrL5fuR81RBQx5pXBo3XO9x6ABqeoLGEbU09US2F93D4rgWut0gHeOpRTIxVYrLxgvHSRsDWnUZ5AHZrfzuC9ba4QSxlRTsJqYXtLcjfGc2+oNt4/K/SunTiqULU0lFcjN+0/a3Y03WUqYhtDPLO6noGtzx2MkknJaT8W3T37jpouzZzG5ZXywVTWtqIrE5eS9rtzh/POFsqibsUcGlcn0IQtCgIQsIAyhCEACEIQAIQhAAhCEACEIQAIQsIAyhCEAeHvABJNgFFy48AfFaSOm9u4Luq6MSiziQPIfSuF2zw5nntAK43aD7QulhUrddL/AJjFHhf8huixqM7yW9Y/MLsjna7kkHqKh3YA7mcO0ELScGlG63Y5Iwx/adL+NQzeX7XNXSoy7srE3NRsfymg+nvUfPgA+I4jyHXzrQzwhnM4jy2d/FbmYy9vukZ6wCPSiricDif5mlKL6uLX5rUIwqw7kk/U4J8MkZvbcdLdV0UOMFmj9W9POP1UhFjUbt5ynyj8wtr4I5Rua7yjf3hY0OzoQnxOz66v0buvJ2+qLSrNrLWibWSNe24Ic09yjfA+Ila5vuZOU+S+7svZbW4WYzeJ5HS12oK7Y7keMLHn1uF13RlicvGhlnF3TWq9H0fNMXzKF8rumbLLnoqbi2kfOcewnTzWXUELpOnFyU+av+Zjd2scMFPd7pXb9zfI0c/WVl8ZlNjpH53fo30rrcy6yAsVhYqOTk3d+L8fvw2LZ3e55aywsNAlGqx2rnknNE1nE05LTmFzK9vKa3q7ObXVT+0WI+D0s8nO1hy/SPit85C07K4bxFJAw8rLmd05n+M7027FrJXeVaAtFdizQY0G1bKpgJgq2sjkA1MUzbNDSB1DrBKe3vAGpA60uYlsWHSOmpZXU8ztXZRdjj0ltxr5vIuYbDOmN62pknA3NHiN9PosqRzxurFpZZa3PewRBbWE+6GpkzdPk7OUveHv43Fql7OTFAyJx5i8uzW6xYjsS9gGzkhmrGU1S6HipOLJDb5m3dbnFiLKYqcMmwyNr6Q8ZE27p2OHjvJ3yZt+g0sN2/XVUi3lV1oi8krvXcckLjwrE2VMTJYzdrh2g84PlC7E0ncX2BCEKQBCEIAEIQgAQhCABCEIAEIQgAQhCABc1XXNjF3b+Yc5W950NtVAz4dNI4ucBc/OGnkXM7RxNajTtQg5SfhdLxZtRhGT9p2R1tx9vO13m/VbBjsfzh/dUeMDk+b3/wAF7GAP+U3zrhU8X2z/ANd/NJfVDbp4bqd4xmI/GP3StgxSL5YUcNnzzvH3f4rYNnxzvP3QnIYntd70o/G3+Rk4Yf8Aqf36Eg2ujPx2/eC9idp5x3hRw2fbzud5l7GAx8+Y9qdhW7QfepR/u/ZmbjR5SfwO4xtdvAPYCtZw6PfkAPSBY+ZaG4LEOY/eK3NoGDcD9536reMKk/4tKHxv/gUultJ/fqbGQW3F3a6/pW0LWAG/xP6oNU0b3N+8E7FKKtsZNm1C1Cpadzmn+8F7EgVwPSFjMi6AFjaw8dPRUo3Pk42T6Eetj5Cb9yZwEsYT7fidZL8WFrKdnXyn+e/emhZw1uy8tLIFGbRYmaenke0Xfo1g6ZHnKwd5Ck0sbQT8ZXYfBzB7p3D6DXZPOCpm7IiKuyU2fwZtLCGjV58aR/O951c4nrXeHgkjo3r2uTDT4r+njZL/AHjbzWUpW0RD11FzDWeAV7oBpTVN3xDmbIOU0dn/AIpvCXduaMupeNZ7rTubMw/QPjdltexTWH1YmijkbyXtDh2i6rD2W4lpapM6EIQtCgIQhAAhCEACEIQAIQhAAhCEACEIQALCyhAGEIXiWYMaXOIDQLkk2AHSSUAe1rlnawFznBrRvJIAHaUk43wkAEso253bs7gct/mt3u83auOj2Qq65wkrpHMZvDTq/sZyWenyLB1ru0Fcwda7tBX+RP4hwh0sRswuld0Rt0+8bA9l1zR7QV9T73pWxMO58zj6ND3AqbwnZinph7VGM3y3eM/7x3dilCLKcs33nbyJUZvvO3kLLMErZPd60sHyYImj/W4X8yhcTxCigJDpamqkG8eFSFt/KQQzuuurHRV4iXMpgI6QEjO95bx1tCRYE5OjSx36rRgnBmB41W4H5kZIHa+1z1Cywkm3aC9X+5hJSbtBerID+nTK7LTUcId9UZn97v0UxRbM4hLq97KdvQGsDvuxN9JCfKLDo4WhsTGsb0NFu/pXmtxaGAe2yMZ9JwB7BvKuqFtZv6GkcO33m/QX6XYIb5qmokPOBKWN8xJ86lYNladnxC76cj3+s4qHr+EqnZpE18p8gyN73a+ZLlfwj1MmkYZEPIMzvvO08yM1KGw1DDdEWVBRsj5DWt6gAvVVMGMe47mtLj1AXKq/ZPEpZsQpzLI9+r+U4ke5v3DcE8bb1XF0NRbe5oYP77g30ErSNS8XJci7p5ZKJp2DhIpOMdy55JJnf3nWHmaD2pkulPFJ5IY6GkpSGTSNDc1rhjI2jO63886aYxYC+pVqeiy9CJ736ntIsFTxmPO6GMLB2MBPnc5PRVeUeHzQ4vxkkbhHJLLZ9rts4Py6jd8UaqtX3fMmnz8iwlyUkbhJNcWYXBzTff4jQ7Tm1HnXDU1cvFSzNJ8TOWxhoIc2MkWOly52U2sRa400N5hhuFoncpax5qIg9rmu1DgWnqIsUu7AzHwV0Tj40EskR7Dcem3YmUpXwD2rEcQi5n8XM0dY8Y97h3KstJJ+hZbNDShYWVoUBCEIAEIWEAZQhYQBlCEIAEIQgAQhCABCFgoA5MTxNlPG6SV2Vje8nmAHOT0KssQxWpxWYRxgiO9wwHxWj5cjuf8Amya8c2Xlr5M0kvFRNuI2ZMx8r3ajU9HMO1TOA4DHRxBkep3uceU49J/IcyWnGdR22j8xacZ1HbaPzOLZrY6KkAcfbJ7avI3dIYPijzphso+vx+ng91lY09Ga7vujVLtdwmQt0hY+Q9J8Rvn18y0zQpqw1ClZWihyXl5Fjfdzqrq7hFqpL8XkiHzW5nfedp5l17BYlLNWuMsj3+0v5TiRymbhuCoq8W7I1dFpXY31u1FPALZi62loo3P3c12iw70s4hwnO1EMNvLKdfuN/VP1lS+0nvyq+uk9YqteUorRk0oxk9jdX7XVU180pa3oj8QebXvKiCbm51J5zv71hCSbb3G0ktgQhCgkndh/hCn63/hvTvt28ZKRrjZj6qIOJ3WGYm6SNh/hCn63/hvVpYthbKmF8Ugu1w7QeYjyhOUVem0hWq7TTIPa1r4JaasjaXthzNkaN/FvHKHVr3hT2G4kyojbJE7Mx249WhB6CDooDZ7FJI5fAqsEytB4uS1xJGN1/LYebXXey09M2Noaxoa0XsGiwFzc6Dylbw1d19sxlorG0qBrYn1M8rGSvibCwasNrzPGYZulrW5Tl3HOpuV4AJOgAueoKM2aYTBxjuVO50x6bSG7B2MyDsVpauxC01I+GplYCx9PMXkklseQwucTdzmyEgtYTckHXUqYwjE/CIy7KWOa98bmk3LXMNiLjeOe/lXaQonChkqaxnMXRzAfWMynzxk9qhJxaDdEulWo8TGYj/a0zm9Za4u/8QmpK20Qy4jhj+l0rO9oA9ZFTZPxRMNxb4XNt6rDpaRtK9rRKyUuzRh2rHMAtfdyikL+ubE/7WP/AC7VP+yB93w/6uf1okpbEcH8mLCfipWRcSWA52OdfPmtaxFrZD3rrUo01SUpJCFSU3PLFnd/XLif9rH/AJdqunY7F5KnDKaolIMr4s7iGgAnXmG4aKsP6gKn97h/wX/7laezmDOo8Oip3uD3RRFhcAQDv1APWsa7pNLJY0pKavmKQm4Z8SkFxJFHcXtHA3S/lfmWiPhZxMG/hN/IYIreZiTYeQ3qHoV0y+x/jyeJWScZbQuhYWX+iCDbtTU+FT7yXwMFxJt2ZH7N8O0rXBtfEx8ZOskLS1zfKYySHjqIPkKuShrWTRskicHxvaHNc03aQdxBXy9tRspPhs/FVAGoLmPbyJGg2u2+4jS4Oov1EvvAZtS5s0lFIfa3h0sN/ivGsjB5CPGt0tcedYVqMXHPA0pVZZsshz4WtqqjDqWCSlc1r3ziMlzA4ZeLkduPlaEu8FvCHWV9e6Gpex0Yp5JLNia05mviaNR5HldfD97xpPtY/BmSfwF/Crvsk34kCiEIug3bUtKT4qR9AIQhIjIIQhAAsFZQgCProah2kMkcY6XRF59YD0qrdoMVqeOlilne8McW6HI02+Y2wVwql9p/ftV9a70pTEaJDFDVkZZCEJIbBNXBt79d9S/1mJVTVwbe/XfUv9Zi0pd9FKndZaKpbaT35VfXSesVdKpbaT35VfXSesUzidkL0N2RqEISQ2CEIQBO7D/CFP1v/DerfVQbD+/6frf+G9W+n8N3WJ1+8LOJ/CtD9VP6EzJXxf4Vw/6E3qpoWsN35mctkRW0sh8Ge0cqUthFt/trgwnsBJ7FJRsDQANwAA6hoFF4wbzUTb2Bmc7ryRPIHXcg9ilgrLdlXsZURTe/6j6iD151LlRWFsJmq3kEAvZG24tdsbBr1ZnPQ90C5koUv0dQ2sqphJGLUkjRE/Mb5yDn0HRYdKnpXhoJO4Ak9Q1S7sFHemdKeVPLJKe11h6POqy1kkWWzZXPsgfd8P8Aq5/WiXX7HzdiPXT+iZcnsgfd8P8Aq5/WiVY0uIyw34mWWLNa/FzPZe17XyEXtc7+ldeEM9BR+9znzko1bs+uVpq+Q/6LvQV8pHaGqt76qf8ANzf719N4K8nD6cuJLjSxkkm5JMQuSTqSk6tB07am8KqnsfKUXIb1D0BfYjdy+OouQ3qC+xW7kxjeXr9DLD7yEThlwQT4ZJJbx6ctmaegA5ZB1ZHHuCpHY6vMGI0Mg5qiJp+jI4Rv/wBL3L6K4QQP6KxG/wC6z9/Fut518zYXfwintv46G3XxjbK2G1ptMKytOLLp4fveNJ9rH4MyT+Av4Vd9km/EgThw++8aT7WPwZkn8Bfwq77JN+JAoh/Lv1Jl/GR9AIQhc8aBCEIAEIQgDCpfaf37VfWu9KuhUvtP79qvrXelK4nZDFDdkYhCEiNgmrg29+u+pf6zEqpq4NvfrvqX+sxaUu+ilTustFUttJ78qvrpPWKulUttJ78qvrpPWKZxOyF6G7I1CEJIbBCEIAndh/hCn63/AIb1b6qDYf4Qp+t/4b1b6fw3dYnX7wrY0f8AmuHfRm9UppSrjp/5phnVN6qalrDeXmZy2Rx4nhzZ2FriQbhzXN5THDVrmnpC14LVukp43yEZrHMQLC7SQTbm3XXeVCYYQKA9AZN5nSXUvR3K8iZEoIBuMpAN76WO5egFx10I4oN5rxjsD2rsViCE2zreKopyOU5vFjrecnoJPYu/BqPiaeGP5EbWnrAF/PdQW1zuOqKCmHx5uNcPmx669mbuTSFSOs2/Qu9IopX2QXu+H/Vz+tEojgq2Fp8UFX4SZBxRiy5H5eXxma+hvyQpf2QPu+H/AFc/rRLr9j5uxHrp/RMuqpOOHuvvUQaTrWZNngLw/wCVUf4w/wBqeI6MQ04jbfLHEGC++zWZRfy2C7Vpq+Q/6LvQUjKcpbsaUVHY+P4+Q3qHoX2K3cvjqLkN6h6F9YVe1NJCzPLUwNZ0mZmvVrr2J3GJu1vEWw+8iE4WcREOE1d98jWwjymVwae5uY9ioPZSjM1fQxtFy6ph+62Rr39zWuPYmLhO4QBicrGQ5hSQkluYWMjyLcYW72gAkAHXU3HRIcCGz5mrnVLh7XTNIabb5ZBlFj5GF1/phWpx4VJtlZviVEkNXD77wpPtY/BmShwF/Crvsk34kCcOH73jSfax+BMq+4KdoIKHEHS1T+LiNPIzNkc7xnPiIFmAnc13NzKKavQaXiWm7VVc+kUJN/rewv8Aev8A48//AOam9ntqqbEGvdSScY1jsrjxb2WcRmtZ7QToRuSLhJatMZUk9mS6EIVCwIQhAGFVOP7NVMlVUOZC9zHSOIIAsR071ayLLOpTU1Zl4TcNUU1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VMeweBzwVRdNE5jeKcLkC1y5hA3+QqwrIVo4eMXe5V1m1YFVGO7NVL6qocyB7muleQQBYgnQ71a6LLSpTU1qUhNwd0U1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VH7J1f7vJ3D9VctkWR+Gj1Ycd9CstktnaiKtgfJC9rBnuSBYXY4Dn6SFZyxZZW1OCgrIynPM7sVNoPhPDP/AHvVH6prXFVYRHJLDK8EyQ5shzEWzaG43HdzrtUxTTZDd0jBUJhIvREDnMze0yvb+amyuHC8PMUQY4g2c91wLcqR0g7rjuUtakcjdXDxP7zPXauheZI7i3lB7iD+S9qSBZpaN8mKTTPaRHFE2OMkaOLtSQfvDtTMsWWVEY2JbuUn7IN4E+H3IHtc+8/OiXX7Hp4IxGxB1p9x8kytmpoI5CDJGx5G7MwOt1XCzT0Ucd+LYxl9+Vgbe269hrvPemuN/wDLh2MOH7ec3rTV8h/0XegrcsEXS5sfHdOfFb1D0LOVrddB3BfVtVsjRym8lLTvPzqdhPoWKPY+jhN4qSnYeltOwHvsuj+MVthP8O77nztstsJV4i9ohjLYja80jSIwOkH/ANQ+RvaRvX0Vsvs3Fh9NHBCDlbqXHlPeeU93lJ7tBzKVDQNy9JWrXlU8jenSUNirvZAOtQUl9P8Aix+DMqL45vyh3hfX9RSMkAEjGvANwHNDhfdexWj+hYP7CL/CZ+i0pYlU45bFKlHO73Pkjjm/KHeFdvsfHXpa237w38Jqsr+hYP7CL/CZ+i301GyO/FsawHflaG367KauJVSOWwU6OR3ubkIQkxgFXUXCNXzzVcdHhgnZTVEtO5/hzGaxuLQcr2C1wAdL796sVU1sntgaGpxloo6upz4lUuzU0PGNbaRwyuN9DpfqK2pRzJ6XKyZZ+zmIVE8Oarp/BZcxHF8c2XxRazs7dNddFKqv9pdu5jR0ngsMlPWV0/g8TaiPK+Lxi10jmG46CL/KB13KO2koq/B4W1rK6arbG5nhMMwaWPY5waTGALs1I3br3voQThtvpfZEZi0UKuds8dqjW4TFQTcWK2KfVzQ5o8VjhKWkauY0uIG4kC60B1ZhWJ0EctXLV0ta6SNwmDbskaAQW23XuNBYWvpuKhUnbcnMWaSlas2jmZjNNRjJxEtNJK7xTnzMc4Czr2toNLKCxOtqsTxWooqaofS0tGxhnfEBxr5JBma1rjyQB1cl176Wj8NoaiDaOliqZjUZaSUxSuaA90bi7xZLaFzXAi/OCFaNO2/S9iHItZF1W1JPVY1VVvF1UtJQUspp28RlEssrOW5zyDZu7ToIXdsXjVTFXVWG10nHSRME8ExaA+SFxA8YDS4JAv1qrptLfXoTmHy6hNs8XfSUFXPDl4yKMvbmF23Ft4uLjtUfwj7TSUFHmpwDVTSMp4Ad3GSbjY77AE26bJO2y2XrqXDKmV9fLU5o7VMUrW8WWuID3RW1YW7/ACgbkU6d7N82RKVizMArXTUtNLJbPJDG91hYXcwONhzC5KkFW+L7RywUOD01NIyGorI4mcc+1oYmRMdLJZ2hcLgC/SuZ2IyYZWUJbiL62lqZhTyslkjkex8nucjCzVrc1hbdr5RaeG2GYsyplyMc75LSe4EqusG4Q8TrKdtRTYZG+B18v/HAOdlcWutmYOcEahWDX+5S/Qf6pSbwJ/AlJ9Kf8eRRCyg5NX1X1Je5JbI7eR1z5YXxyU9ZF7pBLbMBp4zT8ZtyNdN4NrEEtF1XW18Yi2gwOWPSSYVMUhHxmMaC0HpsZHdw6FzDE5MUqq2+IOoaSmlNPG2KSOOWSSP3SRzn6ltzYAaHsN7OmnqtF9ojNbRlnXRdVjhm2lTFh+LtfI2oqsPLgyYAESRuGaKRwboSBe/0esqR2Dw6SVtPVjE5qpr2XmjcWGLO5vJDQLxZXX00Oiq6bSbbJUrj7dF1X21uGOY+WSbGX0hJJgjzxRRsFhYOB1lFxv8AKo/9s6ibZh9Xxhjq2WY6RobfMydsZda2UZm79Oc2QqTaTXkRmsWjdF1XMDa6PDq+vqKl3GyUUksULW2ZT2jdJHbWzn7rkjetGzFdVik/pWuqXOgZSvLKZo0c1rRaVxuLyOLb6jTOjheIZvAs26WuEbaGWgw2oqafLxsfF2ztLm+NIxhuARzOPOljB8CxKvpW1j8QlgqJW8bDDE1ogY12sbXtIu+4tqd1+dRW0e078Q2XrHzANqYpGQTgbuMjniuR1gtOnSVeNL2lz1swctBxx7amaCowaNmTLWSFst2EmwYx3ia+LqTvunC6rja735sz9c78KNbsVxCpxHFJqGlndS01LGx1RJGBxr3yDMxjHOHiix3joKq4XSt6/ELlg3UdtFippKSpqA3OYYpJcubLmyNLrXsbXtvsk3B8QqcOxSKgqp31VNVRufTSSAca18YJfG5w5Wg3npHlTJwgfBWI/ZZ/w3KuS0kuTJvoduzeLGrpKaoLchmiZJlzZsucA2vYX377KTS7wefBOHfZYfUCgtosTqq3Exh9JM6miiiE1TMxoMnjmzImE8kkEG/6WJkvJpBeyH66zdVzR1dVhWJ0tLPUSVdHWB7YnzAGWKVgvYvAGYG439I3WN/Daurxmsq2U9U+koKSQwF0IHGzSt5fjO5IHk6RvvpPCe99OoZiyLoJSx+ztTHRuhGIS8bnDvCXxxmRsQIzMsdL5QRmO690oUGNOosVooIcSdX09S58crJJY5HwvAux2Zm655t2jt+lojTzXswcrDZh+0k0mM1dG7JxEVPFK2zTnzPy3u69iNTzJrSBg/8A1LiP2OD0tT+oqJJq3RBEFXvBT7tjv/dKj1ihCtHuS9CXujZwp0krPAK2FjpPAqkSSMaCXGJ9g8gDfaw6r35lFbc7cQ4lR+B4YTPU1eRmVsbhxbMzXPdISPFFhbtvzIQt6MVKGZ+7/sxnK0rdTpxykEOM7NRjURxVLPuwBv5Lr4RfhDAPtj/VahCqtXHyf1NHsRrcWbg+N17qzMylr2xSRzZHFgfG0tcxxA0Orv8AT0rXQ7QNrdo6WaJrvBhSzxRSOYWiUsOaRzM2pYC8Nvbe0oQtFFOnn52sZZnnynrZbG48GqsRpa8mJktTJVQSua7i5GSWu0OA5QsO267NjHuxDF6vEmse2kbA2kgc5pbxozB73gHW1x/q6QQBCrNWp8Tm9AjJueU7uFvDJZKSCaBhkko6mKqyAXLmx3zaDfa99OYFQe23CTTVuF1EVHnlmmhcXMEbhxUbbOlfISLNDWg8+ptZCEYeKnG791k1JOLsuZzbVYaPBcBrZIfCKWmiY2ojyZ/apYmDOW84aWg9dlL4PU4DLPTtpoqY1D3AxhtKQ5rmgvBJLRkIy8/OhCmMc8G77XKueWSXkP1ePaZfoP8AVKqngw4Q6KiwiniqJsszDKSwRPc7xpXubbK0g3Dh3rKFGGpqpFp+H1LVZuFrEts/DNimKNxCWF8NHTMdHSslblke59w+Ut3gWJ7m23FL+G0dBQVlfBjNPHd9RJPTzywF7HxSa5A8A2ym/a4rKEU3mm4bL9Ak7RUhxwbFsKp6WqqaNkbKZjhHM6KncA4i1vFy3e0cbzA7ylXCW0gxyjdgfuT2ymtbEHCAMy+13B0ac19BzgbtbiFbh5YzlfbQhTu0jl2cxCgilxF+KxCXE/CpQ1k0Blle2/tLIWuad+4W5rc1lqo2kbH1Ydo5ssgcOgipZcIQtJRtlfVoiLv+ZYm0fwDVf9uk/wDrlR2D4S6r2ahgZbPLQhrb7sxZ4t/JeywhKXtC/ibHBs3wnU1Nh8cVXnjraaMQvgdG7jHPjAa3ILWOaw5+dLuI4PLBsviElQwxzVdQ2qcwjVgknhDWkbxo0Gx1GbVCEy4qEo25tMyjJyv4DNtf782Z+ud+FGtLq9uD43Wy1YLaTEGROZNlJYySJuUscRexN3Hu8thCygszjF80/mWk7JszT1wxfHKSamDnUVAyUmbKQx8soy5G3GthlP8AdPSLtvCB8FYj9ln/AA3IQqz0qKPSyLQd43FHY7hSw+mw+ihmmc2WKCNjxxEps5rQCLtYQexapcbZQYv4e8OOHYlTw2nEbiGPaG5M4tdoLbc19fIbCE1KjGMlb3tH8xeNVyT8DbU4o3GMXoPA7vpKEvmlmyuEZeWjIxjiPGNwO89C59nccZglbiFNXZo4aiofVQTFjjG4SWu0kA2IsB1g3tcXELJRTqcLlb9zRzeTOeuEnaOKtoaSSF734f4cyOqcxrxeJt8wdoDkvbrOW3Mo+uraF+J4KMMiibDHUkSSxQZGF7meJHnyjO6wcTrpcdKwhXVNKL8LojNdjNg//UuI/Y4PS1P11lCSqbryRvE//9k=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D504D9-ABBF-416D-98E7-F733BB622C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5861050" y="0"/>
+          <a:ext cx="304800" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBhQQEBAUEBQVFBAUFBQUFhcVEBcXFRcWFRUVFBQWGBUXGygeFxkjHBUUHy8gIycpLC0sFR4xNTAqNSYrLikBCQoKDgwOGg8PGikiHiQwLiwsLCksLCwsLC0sNS0sLCwsLCkpLCwvLCwsLCwsLCwsKSwsKSwsLCwsLCwsLCwsLP/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABgUHAQMEAgj/xABREAABAwIDAggGDwQIBQUAAAABAAIDBBEFEiEGMQcTMkFRcYGRFCJhobGyCCMzNDVCUmJyc3SSs8HRFlTh8BUXU4KTlKLSJCU2dcJDg6S00//EABsBAAIDAQEBAAAAAAAAAAAAAAAEAQIDBQYH/8QAOBEAAgECBAMFBgQGAwEAAAAAAAECAxEEEiExE0FRBTJhcYEiQpGxwfAUodHhMzRSksLxQ1NiI//aAAwDAQACEQMRAD8AvFCEIAEIQgAQsIQBlYKyvLhcKGBzVGJxs3u16BqVGz4648gW8p1PctWJYZxfjN5Hq/wXAvC9p9rY6nUdJ+x5c/X9LHUoYek1m3JzBawvzhxud/ZuUmQlnDZ8krTzHxT2/wAbJnXd7CxTxGFtN3cXZ3+KFcVTyT02YpTxZXOb0Ej9F4K78ahyyX+UPOND+S5KePM9o6SB+q8PisM6eKlRX9Vl67HUpzvTUhloossbB0NC8YjU8XG48+4dZXUFA45U5nBvM3U9Z/h6V9A7RrrBYN5d7ZV8jkUY8Spr5kapHCcPznM4eKN3lP6LnoKMyu+aN5/LrTGS1jeYNA7gF5nsTsziv8TW7i2vz8fJD2Jr5fYjuE0oY0kmwCW62tMrvJ8UfzzrZV1bp3gNBtzD8ypTDsKEertX+YdSexFSt2tU4NDSkt5dfvkvVmMFHDrNLvdDnw7B9zpOxv6qYAQFleiwmDpYSGSmvN835ilSpKo7yBCEJwzBCEIAEIQgAQhCABCEIAEIQgAQhCABCEIAEIQgDCEIQAOdYKJrMcA0jFz0nd2dK6sQo3SCwdlHRbQ9ahZ8MkZ8W4+br/Fec7YxWNprLQg7c5LX/XmxzD06ctZv0N1NjT2nx/GHcR1Kbpqlsgu03Hn7UqL3BOWG7TY/zvXB7P7drYd5a15R8d199BqthYz1joxse0EW5kv4lhpjOZvI9H8FI0OLNfo7xXeY9S7nNvv1XqMRQw3atC8X5Pmn4/oIwlOhPUUU1UU+djXdI16+dQmJYbxZzN1Z6P4LqwCfRzejUdRXC7GVTBY2WGqq2ZfG2zXpcbxNqtNTjyPWPxXY13QfMf5C4cGivKD8kE/l+am66LNG8eTTrGoUds/Fo93UPzP5JzF4PN2rSnyev9v2jKnUtQkvvUlppcrSTuAulhkbpX6cpxufIpXG5zZrG73Hd5B/H0Low+iETbnlHVx/LqWuOoPtDFqj7kNZPxfLzt8NSKUlRp5ub2N0ELYmW3AC5J85KiKid9S/KzkDu6z+i6JM1SbNuIQdT8rqUjBThgAaLBMTovGpUoezRWmnvW5L/wA+PMopcP2nrL5fuR81RBQx5pXBo3XO9x6ABqeoLGEbU09US2F93D4rgWut0gHeOpRTIxVYrLxgvHSRsDWnUZ5AHZrfzuC9ba4QSxlRTsJqYXtLcjfGc2+oNt4/K/SunTiqULU0lFcjN+0/a3Y03WUqYhtDPLO6noGtzx2MkknJaT8W3T37jpouzZzG5ZXywVTWtqIrE5eS9rtzh/POFsqibsUcGlcn0IQtCgIQsIAyhCEACEIQAIQhAAhCEACEIQAIQsIAyhCEAeHvABJNgFFy48AfFaSOm9u4Luq6MSiziQPIfSuF2zw5nntAK43aD7QulhUrddL/AJjFHhf8huixqM7yW9Y/MLsjna7kkHqKh3YA7mcO0ELScGlG63Y5Iwx/adL+NQzeX7XNXSoy7srE3NRsfymg+nvUfPgA+I4jyHXzrQzwhnM4jy2d/FbmYy9vukZ6wCPSiricDif5mlKL6uLX5rUIwqw7kk/U4J8MkZvbcdLdV0UOMFmj9W9POP1UhFjUbt5ynyj8wtr4I5Rua7yjf3hY0OzoQnxOz66v0buvJ2+qLSrNrLWibWSNe24Ic09yjfA+Ila5vuZOU+S+7svZbW4WYzeJ5HS12oK7Y7keMLHn1uF13RlicvGhlnF3TWq9H0fNMXzKF8rumbLLnoqbi2kfOcewnTzWXUELpOnFyU+av+Zjd2scMFPd7pXb9zfI0c/WVl8ZlNjpH53fo30rrcy6yAsVhYqOTk3d+L8fvw2LZ3e55aywsNAlGqx2rnknNE1nE05LTmFzK9vKa3q7ObXVT+0WI+D0s8nO1hy/SPit85C07K4bxFJAw8rLmd05n+M7027FrJXeVaAtFdizQY0G1bKpgJgq2sjkA1MUzbNDSB1DrBKe3vAGpA60uYlsWHSOmpZXU8ztXZRdjj0ltxr5vIuYbDOmN62pknA3NHiN9PosqRzxurFpZZa3PewRBbWE+6GpkzdPk7OUveHv43Fql7OTFAyJx5i8uzW6xYjsS9gGzkhmrGU1S6HipOLJDb5m3dbnFiLKYqcMmwyNr6Q8ZE27p2OHjvJ3yZt+g0sN2/XVUi3lV1oi8krvXcckLjwrE2VMTJYzdrh2g84PlC7E0ncX2BCEKQBCEIAEIQgAQhCABCEIAEIQgAQhCABc1XXNjF3b+Yc5W950NtVAz4dNI4ucBc/OGnkXM7RxNajTtQg5SfhdLxZtRhGT9p2R1tx9vO13m/VbBjsfzh/dUeMDk+b3/wAF7GAP+U3zrhU8X2z/ANd/NJfVDbp4bqd4xmI/GP3StgxSL5YUcNnzzvH3f4rYNnxzvP3QnIYntd70o/G3+Rk4Yf8Aqf36Eg2ujPx2/eC9idp5x3hRw2fbzud5l7GAx8+Y9qdhW7QfepR/u/ZmbjR5SfwO4xtdvAPYCtZw6PfkAPSBY+ZaG4LEOY/eK3NoGDcD9536reMKk/4tKHxv/gUultJ/fqbGQW3F3a6/pW0LWAG/xP6oNU0b3N+8E7FKKtsZNm1C1Cpadzmn+8F7EgVwPSFjMi6AFjaw8dPRUo3Pk42T6Eetj5Cb9yZwEsYT7fidZL8WFrKdnXyn+e/emhZw1uy8tLIFGbRYmaenke0Xfo1g6ZHnKwd5Ck0sbQT8ZXYfBzB7p3D6DXZPOCpm7IiKuyU2fwZtLCGjV58aR/O951c4nrXeHgkjo3r2uTDT4r+njZL/AHjbzWUpW0RD11FzDWeAV7oBpTVN3xDmbIOU0dn/AIpvCXduaMupeNZ7rTubMw/QPjdltexTWH1YmijkbyXtDh2i6rD2W4lpapM6EIQtCgIQhAAhCEACEIQAIQhAAhCEACEIQALCyhAGEIXiWYMaXOIDQLkk2AHSSUAe1rlnawFznBrRvJIAHaUk43wkAEso253bs7gct/mt3u83auOj2Qq65wkrpHMZvDTq/sZyWenyLB1ru0Fcwda7tBX+RP4hwh0sRswuld0Rt0+8bA9l1zR7QV9T73pWxMO58zj6ND3AqbwnZinph7VGM3y3eM/7x3dilCLKcs33nbyJUZvvO3kLLMErZPd60sHyYImj/W4X8yhcTxCigJDpamqkG8eFSFt/KQQzuuurHRV4iXMpgI6QEjO95bx1tCRYE5OjSx36rRgnBmB41W4H5kZIHa+1z1Cywkm3aC9X+5hJSbtBerID+nTK7LTUcId9UZn97v0UxRbM4hLq97KdvQGsDvuxN9JCfKLDo4WhsTGsb0NFu/pXmtxaGAe2yMZ9JwB7BvKuqFtZv6GkcO33m/QX6XYIb5qmokPOBKWN8xJ86lYNladnxC76cj3+s4qHr+EqnZpE18p8gyN73a+ZLlfwj1MmkYZEPIMzvvO08yM1KGw1DDdEWVBRsj5DWt6gAvVVMGMe47mtLj1AXKq/ZPEpZsQpzLI9+r+U4ke5v3DcE8bb1XF0NRbe5oYP77g30ErSNS8XJci7p5ZKJp2DhIpOMdy55JJnf3nWHmaD2pkulPFJ5IY6GkpSGTSNDc1rhjI2jO63886aYxYC+pVqeiy9CJ736ntIsFTxmPO6GMLB2MBPnc5PRVeUeHzQ4vxkkbhHJLLZ9rts4Py6jd8UaqtX3fMmnz8iwlyUkbhJNcWYXBzTff4jQ7Tm1HnXDU1cvFSzNJ8TOWxhoIc2MkWOly52U2sRa400N5hhuFoncpax5qIg9rmu1DgWnqIsUu7AzHwV0Tj40EskR7Dcem3YmUpXwD2rEcQi5n8XM0dY8Y97h3KstJJ+hZbNDShYWVoUBCEIAEIWEAZQhYQBlCEIAEIQgAQhCABCFgoA5MTxNlPG6SV2Vje8nmAHOT0KssQxWpxWYRxgiO9wwHxWj5cjuf8Amya8c2Xlr5M0kvFRNuI2ZMx8r3ajU9HMO1TOA4DHRxBkep3uceU49J/IcyWnGdR22j8xacZ1HbaPzOLZrY6KkAcfbJ7avI3dIYPijzphso+vx+ng91lY09Ga7vujVLtdwmQt0hY+Q9J8Rvn18y0zQpqw1ClZWihyXl5Fjfdzqrq7hFqpL8XkiHzW5nfedp5l17BYlLNWuMsj3+0v5TiRymbhuCoq8W7I1dFpXY31u1FPALZi62loo3P3c12iw70s4hwnO1EMNvLKdfuN/VP1lS+0nvyq+uk9YqteUorRk0oxk9jdX7XVU180pa3oj8QebXvKiCbm51J5zv71hCSbb3G0ktgQhCgkndh/hCn63/hvTvt28ZKRrjZj6qIOJ3WGYm6SNh/hCn63/hvVpYthbKmF8Ugu1w7QeYjyhOUVem0hWq7TTIPa1r4JaasjaXthzNkaN/FvHKHVr3hT2G4kyojbJE7Mx249WhB6CDooDZ7FJI5fAqsEytB4uS1xJGN1/LYebXXey09M2Noaxoa0XsGiwFzc6Dylbw1d19sxlorG0qBrYn1M8rGSvibCwasNrzPGYZulrW5Tl3HOpuV4AJOgAueoKM2aYTBxjuVO50x6bSG7B2MyDsVpauxC01I+GplYCx9PMXkklseQwucTdzmyEgtYTckHXUqYwjE/CIy7KWOa98bmk3LXMNiLjeOe/lXaQonChkqaxnMXRzAfWMynzxk9qhJxaDdEulWo8TGYj/a0zm9Za4u/8QmpK20Qy4jhj+l0rO9oA9ZFTZPxRMNxb4XNt6rDpaRtK9rRKyUuzRh2rHMAtfdyikL+ubE/7WP/AC7VP+yB93w/6uf1okpbEcH8mLCfipWRcSWA52OdfPmtaxFrZD3rrUo01SUpJCFSU3PLFnd/XLif9rH/AJdqunY7F5KnDKaolIMr4s7iGgAnXmG4aKsP6gKn97h/wX/7laezmDOo8Oip3uD3RRFhcAQDv1APWsa7pNLJY0pKavmKQm4Z8SkFxJFHcXtHA3S/lfmWiPhZxMG/hN/IYIreZiTYeQ3qHoV0y+x/jyeJWScZbQuhYWX+iCDbtTU+FT7yXwMFxJt2ZH7N8O0rXBtfEx8ZOskLS1zfKYySHjqIPkKuShrWTRskicHxvaHNc03aQdxBXy9tRspPhs/FVAGoLmPbyJGg2u2+4jS4Oov1EvvAZtS5s0lFIfa3h0sN/ivGsjB5CPGt0tcedYVqMXHPA0pVZZsshz4WtqqjDqWCSlc1r3ziMlzA4ZeLkduPlaEu8FvCHWV9e6Gpex0Yp5JLNia05mviaNR5HldfD97xpPtY/BmSfwF/Crvsk34kCiEIug3bUtKT4qR9AIQhIjIIQhAAsFZQgCProah2kMkcY6XRF59YD0qrdoMVqeOlilne8McW6HI02+Y2wVwql9p/ftV9a70pTEaJDFDVkZZCEJIbBNXBt79d9S/1mJVTVwbe/XfUv9Zi0pd9FKndZaKpbaT35VfXSesVdKpbaT35VfXSesUzidkL0N2RqEISQ2CEIQBO7D/CFP1v/DerfVQbD+/6frf+G9W+n8N3WJ1+8LOJ/CtD9VP6EzJXxf4Vw/6E3qpoWsN35mctkRW0sh8Ge0cqUthFt/trgwnsBJ7FJRsDQANwAA6hoFF4wbzUTb2Bmc7ryRPIHXcg9ilgrLdlXsZURTe/6j6iD151LlRWFsJmq3kEAvZG24tdsbBr1ZnPQ90C5koUv0dQ2sqphJGLUkjRE/Mb5yDn0HRYdKnpXhoJO4Ak9Q1S7sFHemdKeVPLJKe11h6POqy1kkWWzZXPsgfd8P8Aq5/WiXX7HzdiPXT+iZcnsgfd8P8Aq5/WiVY0uIyw34mWWLNa/FzPZe17XyEXtc7+ldeEM9BR+9znzko1bs+uVpq+Q/6LvQV8pHaGqt76qf8ANzf719N4K8nD6cuJLjSxkkm5JMQuSTqSk6tB07am8KqnsfKUXIb1D0BfYjdy+OouQ3qC+xW7kxjeXr9DLD7yEThlwQT4ZJJbx6ctmaegA5ZB1ZHHuCpHY6vMGI0Mg5qiJp+jI4Rv/wBL3L6K4QQP6KxG/wC6z9/Fut518zYXfwintv46G3XxjbK2G1ptMKytOLLp4fveNJ9rH4MyT+Av4Vd9km/EgThw++8aT7WPwZkn8Bfwq77JN+JAoh/Lv1Jl/GR9AIQhc8aBCEIAEIQgDCpfaf37VfWu9KuhUvtP79qvrXelK4nZDFDdkYhCEiNgmrg29+u+pf6zEqpq4NvfrvqX+sxaUu+ilTustFUttJ78qvrpPWKulUttJ78qvrpPWKZxOyF6G7I1CEJIbBCEIAndh/hCn63/AIb1b6qDYf4Qp+t/4b1b6fw3dYnX7wrY0f8AmuHfRm9UppSrjp/5phnVN6qalrDeXmZy2Rx4nhzZ2FriQbhzXN5THDVrmnpC14LVukp43yEZrHMQLC7SQTbm3XXeVCYYQKA9AZN5nSXUvR3K8iZEoIBuMpAN76WO5egFx10I4oN5rxjsD2rsViCE2zreKopyOU5vFjrecnoJPYu/BqPiaeGP5EbWnrAF/PdQW1zuOqKCmHx5uNcPmx669mbuTSFSOs2/Qu9IopX2QXu+H/Vz+tEojgq2Fp8UFX4SZBxRiy5H5eXxma+hvyQpf2QPu+H/AFc/rRLr9j5uxHrp/RMuqpOOHuvvUQaTrWZNngLw/wCVUf4w/wBqeI6MQ04jbfLHEGC++zWZRfy2C7Vpq+Q/6LvQUjKcpbsaUVHY+P4+Q3qHoX2K3cvjqLkN6h6F9YVe1NJCzPLUwNZ0mZmvVrr2J3GJu1vEWw+8iE4WcREOE1d98jWwjymVwae5uY9ioPZSjM1fQxtFy6ph+62Rr39zWuPYmLhO4QBicrGQ5hSQkluYWMjyLcYW72gAkAHXU3HRIcCGz5mrnVLh7XTNIabb5ZBlFj5GF1/phWpx4VJtlZviVEkNXD77wpPtY/BmShwF/Crvsk34kCcOH73jSfax+BMq+4KdoIKHEHS1T+LiNPIzNkc7xnPiIFmAnc13NzKKavQaXiWm7VVc+kUJN/rewv8Aev8A48//AOam9ntqqbEGvdSScY1jsrjxb2WcRmtZ7QToRuSLhJatMZUk9mS6EIVCwIQhAGFVOP7NVMlVUOZC9zHSOIIAsR071ayLLOpTU1Zl4TcNUU1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VMeweBzwVRdNE5jeKcLkC1y5hA3+QqwrIVo4eMXe5V1m1YFVGO7NVL6qocyB7muleQQBYgnQ71a6LLSpTU1qUhNwd0U1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VH7J1f7vJ3D9VctkWR+Gj1Ycd9CstktnaiKtgfJC9rBnuSBYXY4Dn6SFZyxZZW1OCgrIynPM7sVNoPhPDP/AHvVH6prXFVYRHJLDK8EyQ5shzEWzaG43HdzrtUxTTZDd0jBUJhIvREDnMze0yvb+amyuHC8PMUQY4g2c91wLcqR0g7rjuUtakcjdXDxP7zPXauheZI7i3lB7iD+S9qSBZpaN8mKTTPaRHFE2OMkaOLtSQfvDtTMsWWVEY2JbuUn7IN4E+H3IHtc+8/OiXX7Hp4IxGxB1p9x8kytmpoI5CDJGx5G7MwOt1XCzT0Ucd+LYxl9+Vgbe269hrvPemuN/wDLh2MOH7ec3rTV8h/0XegrcsEXS5sfHdOfFb1D0LOVrddB3BfVtVsjRym8lLTvPzqdhPoWKPY+jhN4qSnYeltOwHvsuj+MVthP8O77nztstsJV4i9ohjLYja80jSIwOkH/ANQ+RvaRvX0Vsvs3Fh9NHBCDlbqXHlPeeU93lJ7tBzKVDQNy9JWrXlU8jenSUNirvZAOtQUl9P8Aix+DMqL45vyh3hfX9RSMkAEjGvANwHNDhfdexWj+hYP7CL/CZ+i0pYlU45bFKlHO73Pkjjm/KHeFdvsfHXpa237w38Jqsr+hYP7CL/CZ+i301GyO/FsawHflaG367KauJVSOWwU6OR3ubkIQkxgFXUXCNXzzVcdHhgnZTVEtO5/hzGaxuLQcr2C1wAdL796sVU1sntgaGpxloo6upz4lUuzU0PGNbaRwyuN9DpfqK2pRzJ6XKyZZ+zmIVE8Oarp/BZcxHF8c2XxRazs7dNddFKqv9pdu5jR0ngsMlPWV0/g8TaiPK+Lxi10jmG46CL/KB13KO2koq/B4W1rK6arbG5nhMMwaWPY5waTGALs1I3br3voQThtvpfZEZi0UKuds8dqjW4TFQTcWK2KfVzQ5o8VjhKWkauY0uIG4kC60B1ZhWJ0EctXLV0ta6SNwmDbskaAQW23XuNBYWvpuKhUnbcnMWaSlas2jmZjNNRjJxEtNJK7xTnzMc4Czr2toNLKCxOtqsTxWooqaofS0tGxhnfEBxr5JBma1rjyQB1cl176Wj8NoaiDaOliqZjUZaSUxSuaA90bi7xZLaFzXAi/OCFaNO2/S9iHItZF1W1JPVY1VVvF1UtJQUspp28RlEssrOW5zyDZu7ToIXdsXjVTFXVWG10nHSRME8ExaA+SFxA8YDS4JAv1qrptLfXoTmHy6hNs8XfSUFXPDl4yKMvbmF23Ft4uLjtUfwj7TSUFHmpwDVTSMp4Ad3GSbjY77AE26bJO2y2XrqXDKmV9fLU5o7VMUrW8WWuID3RW1YW7/ACgbkU6d7N82RKVizMArXTUtNLJbPJDG91hYXcwONhzC5KkFW+L7RywUOD01NIyGorI4mcc+1oYmRMdLJZ2hcLgC/SuZ2IyYZWUJbiL62lqZhTyslkjkex8nucjCzVrc1hbdr5RaeG2GYsyplyMc75LSe4EqusG4Q8TrKdtRTYZG+B18v/HAOdlcWutmYOcEahWDX+5S/Qf6pSbwJ/AlJ9Kf8eRRCyg5NX1X1Je5JbI7eR1z5YXxyU9ZF7pBLbMBp4zT8ZtyNdN4NrEEtF1XW18Yi2gwOWPSSYVMUhHxmMaC0HpsZHdw6FzDE5MUqq2+IOoaSmlNPG2KSOOWSSP3SRzn6ltzYAaHsN7OmnqtF9ojNbRlnXRdVjhm2lTFh+LtfI2oqsPLgyYAESRuGaKRwboSBe/0esqR2Dw6SVtPVjE5qpr2XmjcWGLO5vJDQLxZXX00Oiq6bSbbJUrj7dF1X21uGOY+WSbGX0hJJgjzxRRsFhYOB1lFxv8AKo/9s6ibZh9Xxhjq2WY6RobfMydsZda2UZm79Oc2QqTaTXkRmsWjdF1XMDa6PDq+vqKl3GyUUksULW2ZT2jdJHbWzn7rkjetGzFdVik/pWuqXOgZSvLKZo0c1rRaVxuLyOLb6jTOjheIZvAs26WuEbaGWgw2oqafLxsfF2ztLm+NIxhuARzOPOljB8CxKvpW1j8QlgqJW8bDDE1ogY12sbXtIu+4tqd1+dRW0e078Q2XrHzANqYpGQTgbuMjniuR1gtOnSVeNL2lz1swctBxx7amaCowaNmTLWSFst2EmwYx3ia+LqTvunC6rja735sz9c78KNbsVxCpxHFJqGlndS01LGx1RJGBxr3yDMxjHOHiix3joKq4XSt6/ELlg3UdtFippKSpqA3OYYpJcubLmyNLrXsbXtvsk3B8QqcOxSKgqp31VNVRufTSSAca18YJfG5w5Wg3npHlTJwgfBWI/ZZ/w3KuS0kuTJvoduzeLGrpKaoLchmiZJlzZsucA2vYX377KTS7wefBOHfZYfUCgtosTqq3Exh9JM6miiiE1TMxoMnjmzImE8kkEG/6WJkvJpBeyH66zdVzR1dVhWJ0tLPUSVdHWB7YnzAGWKVgvYvAGYG439I3WN/Daurxmsq2U9U+koKSQwF0IHGzSt5fjO5IHk6RvvpPCe99OoZiyLoJSx+ztTHRuhGIS8bnDvCXxxmRsQIzMsdL5QRmO690oUGNOosVooIcSdX09S58crJJY5HwvAux2Zm655t2jt+lojTzXswcrDZh+0k0mM1dG7JxEVPFK2zTnzPy3u69iNTzJrSBg/8A1LiP2OD0tT+oqJJq3RBEFXvBT7tjv/dKj1ihCtHuS9CXujZwp0krPAK2FjpPAqkSSMaCXGJ9g8gDfaw6r35lFbc7cQ4lR+B4YTPU1eRmVsbhxbMzXPdISPFFhbtvzIQt6MVKGZ+7/sxnK0rdTpxykEOM7NRjURxVLPuwBv5Lr4RfhDAPtj/VahCqtXHyf1NHsRrcWbg+N17qzMylr2xSRzZHFgfG0tcxxA0Orv8AT0rXQ7QNrdo6WaJrvBhSzxRSOYWiUsOaRzM2pYC8Nvbe0oQtFFOnn52sZZnnynrZbG48GqsRpa8mJktTJVQSua7i5GSWu0OA5QsO267NjHuxDF6vEmse2kbA2kgc5pbxozB73gHW1x/q6QQBCrNWp8Tm9AjJueU7uFvDJZKSCaBhkko6mKqyAXLmx3zaDfa99OYFQe23CTTVuF1EVHnlmmhcXMEbhxUbbOlfISLNDWg8+ptZCEYeKnG791k1JOLsuZzbVYaPBcBrZIfCKWmiY2ojyZ/apYmDOW84aWg9dlL4PU4DLPTtpoqY1D3AxhtKQ5rmgvBJLRkIy8/OhCmMc8G77XKueWSXkP1ePaZfoP8AVKqngw4Q6KiwiniqJsszDKSwRPc7xpXubbK0g3Dh3rKFGGpqpFp+H1LVZuFrEts/DNimKNxCWF8NHTMdHSslblke59w+Ut3gWJ7m23FL+G0dBQVlfBjNPHd9RJPTzywF7HxSa5A8A2ym/a4rKEU3mm4bL9Ak7RUhxwbFsKp6WqqaNkbKZjhHM6KncA4i1vFy3e0cbzA7ylXCW0gxyjdgfuT2ymtbEHCAMy+13B0ac19BzgbtbiFbh5YzlfbQhTu0jl2cxCgilxF+KxCXE/CpQ1k0Blle2/tLIWuad+4W5rc1lqo2kbH1Ydo5ssgcOgipZcIQtJRtlfVoiLv+ZYm0fwDVf9uk/wDrlR2D4S6r2ahgZbPLQhrb7sxZ4t/JeywhKXtC/ibHBs3wnU1Nh8cVXnjraaMQvgdG7jHPjAa3ILWOaw5+dLuI4PLBsviElQwxzVdQ2qcwjVgknhDWkbxo0Gx1GbVCEy4qEo25tMyjJyv4DNtf782Z+ud+FGtLq9uD43Wy1YLaTEGROZNlJYySJuUscRexN3Hu8thCygszjF80/mWk7JszT1wxfHKSamDnUVAyUmbKQx8soy5G3GthlP8AdPSLtvCB8FYj9ln/AA3IQqz0qKPSyLQd43FHY7hSw+mw+ihmmc2WKCNjxxEps5rQCLtYQexapcbZQYv4e8OOHYlTw2nEbiGPaG5M4tdoLbc19fIbCE1KjGMlb3tH8xeNVyT8DbU4o3GMXoPA7vpKEvmlmyuEZeWjIxjiPGNwO89C59nccZglbiFNXZo4aiofVQTFjjG4SWu0kA2IsB1g3tcXELJRTqcLlb9zRzeTOeuEnaOKtoaSSF734f4cyOqcxrxeJt8wdoDkvbrOW3Mo+uraF+J4KMMiibDHUkSSxQZGF7meJHnyjO6wcTrpcdKwhXVNKL8LojNdjNg//UuI/Y4PS1P11lCSqbryRvE//9k=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D51272-5623-4D9C-96CA-813F3A798494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5861050" y="0"/>
+          <a:ext cx="304800" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBhQQEBAUEBQVFBAUFBQUFhcVEBcXFRcWFRUVFBQWGBUXGygeFxkjHBUUHy8gIycpLC0sFR4xNTAqNSYrLikBCQoKDgwOGg8PGikiHiQwLiwsLCksLCwsLC0sNS0sLCwsLCkpLCwvLCwsLCwsLCwsKSwsKSwsLCwsLCwsLCwsLP/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABgUHAQMEAgj/xABREAABAwIDAggGDwQIBQUAAAABAAIDBBEFEiEGMQcTMkFRcYGRFCJhobGyCCMzNDVCUmJyc3SSs8HRFlTh8BUXU4KTlKLSJCU2dcJDg6S00//EABsBAAIDAQEBAAAAAAAAAAAAAAAEAQIDBQYH/8QAOBEAAgECBAMFBgQGAwEAAAAAAAECAxEEEiExE0FRBTJhcYEiQpGxwfAUodHhMzRSksLxQ1NiI//aAAwDAQACEQMRAD8AvFCEIAEIQgAQsIQBlYKyvLhcKGBzVGJxs3u16BqVGz4648gW8p1PctWJYZxfjN5Hq/wXAvC9p9rY6nUdJ+x5c/X9LHUoYek1m3JzBawvzhxud/ZuUmQlnDZ8krTzHxT2/wAbJnXd7CxTxGFtN3cXZ3+KFcVTyT02YpTxZXOb0Ej9F4K78ahyyX+UPOND+S5KePM9o6SB+q8PisM6eKlRX9Vl67HUpzvTUhloossbB0NC8YjU8XG48+4dZXUFA45U5nBvM3U9Z/h6V9A7RrrBYN5d7ZV8jkUY8Spr5kapHCcPznM4eKN3lP6LnoKMyu+aN5/LrTGS1jeYNA7gF5nsTsziv8TW7i2vz8fJD2Jr5fYjuE0oY0kmwCW62tMrvJ8UfzzrZV1bp3gNBtzD8ypTDsKEertX+YdSexFSt2tU4NDSkt5dfvkvVmMFHDrNLvdDnw7B9zpOxv6qYAQFleiwmDpYSGSmvN835ilSpKo7yBCEJwzBCEIAEIQgAQhCABCEIAEIQgAQhCABCEIAEIQgDCEIQAOdYKJrMcA0jFz0nd2dK6sQo3SCwdlHRbQ9ahZ8MkZ8W4+br/Fec7YxWNprLQg7c5LX/XmxzD06ctZv0N1NjT2nx/GHcR1Kbpqlsgu03Hn7UqL3BOWG7TY/zvXB7P7drYd5a15R8d199BqthYz1joxse0EW5kv4lhpjOZvI9H8FI0OLNfo7xXeY9S7nNvv1XqMRQw3atC8X5Pmn4/oIwlOhPUUU1UU+djXdI16+dQmJYbxZzN1Z6P4LqwCfRzejUdRXC7GVTBY2WGqq2ZfG2zXpcbxNqtNTjyPWPxXY13QfMf5C4cGivKD8kE/l+am66LNG8eTTrGoUds/Fo93UPzP5JzF4PN2rSnyev9v2jKnUtQkvvUlppcrSTuAulhkbpX6cpxufIpXG5zZrG73Hd5B/H0Low+iETbnlHVx/LqWuOoPtDFqj7kNZPxfLzt8NSKUlRp5ub2N0ELYmW3AC5J85KiKid9S/KzkDu6z+i6JM1SbNuIQdT8rqUjBThgAaLBMTovGpUoezRWmnvW5L/wA+PMopcP2nrL5fuR81RBQx5pXBo3XO9x6ABqeoLGEbU09US2F93D4rgWut0gHeOpRTIxVYrLxgvHSRsDWnUZ5AHZrfzuC9ba4QSxlRTsJqYXtLcjfGc2+oNt4/K/SunTiqULU0lFcjN+0/a3Y03WUqYhtDPLO6noGtzx2MkknJaT8W3T37jpouzZzG5ZXywVTWtqIrE5eS9rtzh/POFsqibsUcGlcn0IQtCgIQsIAyhCEACEIQAIQhAAhCEACEIQAIQsIAyhCEAeHvABJNgFFy48AfFaSOm9u4Luq6MSiziQPIfSuF2zw5nntAK43aD7QulhUrddL/AJjFHhf8huixqM7yW9Y/MLsjna7kkHqKh3YA7mcO0ELScGlG63Y5Iwx/adL+NQzeX7XNXSoy7srE3NRsfymg+nvUfPgA+I4jyHXzrQzwhnM4jy2d/FbmYy9vukZ6wCPSiricDif5mlKL6uLX5rUIwqw7kk/U4J8MkZvbcdLdV0UOMFmj9W9POP1UhFjUbt5ynyj8wtr4I5Rua7yjf3hY0OzoQnxOz66v0buvJ2+qLSrNrLWibWSNe24Ic09yjfA+Ila5vuZOU+S+7svZbW4WYzeJ5HS12oK7Y7keMLHn1uF13RlicvGhlnF3TWq9H0fNMXzKF8rumbLLnoqbi2kfOcewnTzWXUELpOnFyU+av+Zjd2scMFPd7pXb9zfI0c/WVl8ZlNjpH53fo30rrcy6yAsVhYqOTk3d+L8fvw2LZ3e55aywsNAlGqx2rnknNE1nE05LTmFzK9vKa3q7ObXVT+0WI+D0s8nO1hy/SPit85C07K4bxFJAw8rLmd05n+M7027FrJXeVaAtFdizQY0G1bKpgJgq2sjkA1MUzbNDSB1DrBKe3vAGpA60uYlsWHSOmpZXU8ztXZRdjj0ltxr5vIuYbDOmN62pknA3NHiN9PosqRzxurFpZZa3PewRBbWE+6GpkzdPk7OUveHv43Fql7OTFAyJx5i8uzW6xYjsS9gGzkhmrGU1S6HipOLJDb5m3dbnFiLKYqcMmwyNr6Q8ZE27p2OHjvJ3yZt+g0sN2/XVUi3lV1oi8krvXcckLjwrE2VMTJYzdrh2g84PlC7E0ncX2BCEKQBCEIAEIQgAQhCABCEIAEIQgAQhCABc1XXNjF3b+Yc5W950NtVAz4dNI4ucBc/OGnkXM7RxNajTtQg5SfhdLxZtRhGT9p2R1tx9vO13m/VbBjsfzh/dUeMDk+b3/wAF7GAP+U3zrhU8X2z/ANd/NJfVDbp4bqd4xmI/GP3StgxSL5YUcNnzzvH3f4rYNnxzvP3QnIYntd70o/G3+Rk4Yf8Aqf36Eg2ujPx2/eC9idp5x3hRw2fbzud5l7GAx8+Y9qdhW7QfepR/u/ZmbjR5SfwO4xtdvAPYCtZw6PfkAPSBY+ZaG4LEOY/eK3NoGDcD9536reMKk/4tKHxv/gUultJ/fqbGQW3F3a6/pW0LWAG/xP6oNU0b3N+8E7FKKtsZNm1C1Cpadzmn+8F7EgVwPSFjMi6AFjaw8dPRUo3Pk42T6Eetj5Cb9yZwEsYT7fidZL8WFrKdnXyn+e/emhZw1uy8tLIFGbRYmaenke0Xfo1g6ZHnKwd5Ck0sbQT8ZXYfBzB7p3D6DXZPOCpm7IiKuyU2fwZtLCGjV58aR/O951c4nrXeHgkjo3r2uTDT4r+njZL/AHjbzWUpW0RD11FzDWeAV7oBpTVN3xDmbIOU0dn/AIpvCXduaMupeNZ7rTubMw/QPjdltexTWH1YmijkbyXtDh2i6rD2W4lpapM6EIQtCgIQhAAhCEACEIQAIQhAAhCEACEIQALCyhAGEIXiWYMaXOIDQLkk2AHSSUAe1rlnawFznBrRvJIAHaUk43wkAEso253bs7gct/mt3u83auOj2Qq65wkrpHMZvDTq/sZyWenyLB1ru0Fcwda7tBX+RP4hwh0sRswuld0Rt0+8bA9l1zR7QV9T73pWxMO58zj6ND3AqbwnZinph7VGM3y3eM/7x3dilCLKcs33nbyJUZvvO3kLLMErZPd60sHyYImj/W4X8yhcTxCigJDpamqkG8eFSFt/KQQzuuurHRV4iXMpgI6QEjO95bx1tCRYE5OjSx36rRgnBmB41W4H5kZIHa+1z1Cywkm3aC9X+5hJSbtBerID+nTK7LTUcId9UZn97v0UxRbM4hLq97KdvQGsDvuxN9JCfKLDo4WhsTGsb0NFu/pXmtxaGAe2yMZ9JwB7BvKuqFtZv6GkcO33m/QX6XYIb5qmokPOBKWN8xJ86lYNladnxC76cj3+s4qHr+EqnZpE18p8gyN73a+ZLlfwj1MmkYZEPIMzvvO08yM1KGw1DDdEWVBRsj5DWt6gAvVVMGMe47mtLj1AXKq/ZPEpZsQpzLI9+r+U4ke5v3DcE8bb1XF0NRbe5oYP77g30ErSNS8XJci7p5ZKJp2DhIpOMdy55JJnf3nWHmaD2pkulPFJ5IY6GkpSGTSNDc1rhjI2jO63886aYxYC+pVqeiy9CJ736ntIsFTxmPO6GMLB2MBPnc5PRVeUeHzQ4vxkkbhHJLLZ9rts4Py6jd8UaqtX3fMmnz8iwlyUkbhJNcWYXBzTff4jQ7Tm1HnXDU1cvFSzNJ8TOWxhoIc2MkWOly52U2sRa400N5hhuFoncpax5qIg9rmu1DgWnqIsUu7AzHwV0Tj40EskR7Dcem3YmUpXwD2rEcQi5n8XM0dY8Y97h3KstJJ+hZbNDShYWVoUBCEIAEIWEAZQhYQBlCEIAEIQgAQhCABCFgoA5MTxNlPG6SV2Vje8nmAHOT0KssQxWpxWYRxgiO9wwHxWj5cjuf8Amya8c2Xlr5M0kvFRNuI2ZMx8r3ajU9HMO1TOA4DHRxBkep3uceU49J/IcyWnGdR22j8xacZ1HbaPzOLZrY6KkAcfbJ7avI3dIYPijzphso+vx+ng91lY09Ga7vujVLtdwmQt0hY+Q9J8Rvn18y0zQpqw1ClZWihyXl5Fjfdzqrq7hFqpL8XkiHzW5nfedp5l17BYlLNWuMsj3+0v5TiRymbhuCoq8W7I1dFpXY31u1FPALZi62loo3P3c12iw70s4hwnO1EMNvLKdfuN/VP1lS+0nvyq+uk9YqteUorRk0oxk9jdX7XVU180pa3oj8QebXvKiCbm51J5zv71hCSbb3G0ktgQhCgkndh/hCn63/hvTvt28ZKRrjZj6qIOJ3WGYm6SNh/hCn63/hvVpYthbKmF8Ugu1w7QeYjyhOUVem0hWq7TTIPa1r4JaasjaXthzNkaN/FvHKHVr3hT2G4kyojbJE7Mx249WhB6CDooDZ7FJI5fAqsEytB4uS1xJGN1/LYebXXey09M2Noaxoa0XsGiwFzc6Dylbw1d19sxlorG0qBrYn1M8rGSvibCwasNrzPGYZulrW5Tl3HOpuV4AJOgAueoKM2aYTBxjuVO50x6bSG7B2MyDsVpauxC01I+GplYCx9PMXkklseQwucTdzmyEgtYTckHXUqYwjE/CIy7KWOa98bmk3LXMNiLjeOe/lXaQonChkqaxnMXRzAfWMynzxk9qhJxaDdEulWo8TGYj/a0zm9Za4u/8QmpK20Qy4jhj+l0rO9oA9ZFTZPxRMNxb4XNt6rDpaRtK9rRKyUuzRh2rHMAtfdyikL+ubE/7WP/AC7VP+yB93w/6uf1okpbEcH8mLCfipWRcSWA52OdfPmtaxFrZD3rrUo01SUpJCFSU3PLFnd/XLif9rH/AJdqunY7F5KnDKaolIMr4s7iGgAnXmG4aKsP6gKn97h/wX/7laezmDOo8Oip3uD3RRFhcAQDv1APWsa7pNLJY0pKavmKQm4Z8SkFxJFHcXtHA3S/lfmWiPhZxMG/hN/IYIreZiTYeQ3qHoV0y+x/jyeJWScZbQuhYWX+iCDbtTU+FT7yXwMFxJt2ZH7N8O0rXBtfEx8ZOskLS1zfKYySHjqIPkKuShrWTRskicHxvaHNc03aQdxBXy9tRspPhs/FVAGoLmPbyJGg2u2+4jS4Oov1EvvAZtS5s0lFIfa3h0sN/ivGsjB5CPGt0tcedYVqMXHPA0pVZZsshz4WtqqjDqWCSlc1r3ziMlzA4ZeLkduPlaEu8FvCHWV9e6Gpex0Yp5JLNia05mviaNR5HldfD97xpPtY/BmSfwF/Crvsk34kCiEIug3bUtKT4qR9AIQhIjIIQhAAsFZQgCProah2kMkcY6XRF59YD0qrdoMVqeOlilne8McW6HI02+Y2wVwql9p/ftV9a70pTEaJDFDVkZZCEJIbBNXBt79d9S/1mJVTVwbe/XfUv9Zi0pd9FKndZaKpbaT35VfXSesVdKpbaT35VfXSesUzidkL0N2RqEISQ2CEIQBO7D/CFP1v/DerfVQbD+/6frf+G9W+n8N3WJ1+8LOJ/CtD9VP6EzJXxf4Vw/6E3qpoWsN35mctkRW0sh8Ge0cqUthFt/trgwnsBJ7FJRsDQANwAA6hoFF4wbzUTb2Bmc7ryRPIHXcg9ilgrLdlXsZURTe/6j6iD151LlRWFsJmq3kEAvZG24tdsbBr1ZnPQ90C5koUv0dQ2sqphJGLUkjRE/Mb5yDn0HRYdKnpXhoJO4Ak9Q1S7sFHemdKeVPLJKe11h6POqy1kkWWzZXPsgfd8P8Aq5/WiXX7HzdiPXT+iZcnsgfd8P8Aq5/WiVY0uIyw34mWWLNa/FzPZe17XyEXtc7+ldeEM9BR+9znzko1bs+uVpq+Q/6LvQV8pHaGqt76qf8ANzf719N4K8nD6cuJLjSxkkm5JMQuSTqSk6tB07am8KqnsfKUXIb1D0BfYjdy+OouQ3qC+xW7kxjeXr9DLD7yEThlwQT4ZJJbx6ctmaegA5ZB1ZHHuCpHY6vMGI0Mg5qiJp+jI4Rv/wBL3L6K4QQP6KxG/wC6z9/Fut518zYXfwintv46G3XxjbK2G1ptMKytOLLp4fveNJ9rH4MyT+Av4Vd9km/EgThw++8aT7WPwZkn8Bfwq77JN+JAoh/Lv1Jl/GR9AIQhc8aBCEIAEIQgDCpfaf37VfWu9KuhUvtP79qvrXelK4nZDFDdkYhCEiNgmrg29+u+pf6zEqpq4NvfrvqX+sxaUu+ilTustFUttJ78qvrpPWKulUttJ78qvrpPWKZxOyF6G7I1CEJIbBCEIAndh/hCn63/AIb1b6qDYf4Qp+t/4b1b6fw3dYnX7wrY0f8AmuHfRm9UppSrjp/5phnVN6qalrDeXmZy2Rx4nhzZ2FriQbhzXN5THDVrmnpC14LVukp43yEZrHMQLC7SQTbm3XXeVCYYQKA9AZN5nSXUvR3K8iZEoIBuMpAN76WO5egFx10I4oN5rxjsD2rsViCE2zreKopyOU5vFjrecnoJPYu/BqPiaeGP5EbWnrAF/PdQW1zuOqKCmHx5uNcPmx669mbuTSFSOs2/Qu9IopX2QXu+H/Vz+tEojgq2Fp8UFX4SZBxRiy5H5eXxma+hvyQpf2QPu+H/AFc/rRLr9j5uxHrp/RMuqpOOHuvvUQaTrWZNngLw/wCVUf4w/wBqeI6MQ04jbfLHEGC++zWZRfy2C7Vpq+Q/6LvQUjKcpbsaUVHY+P4+Q3qHoX2K3cvjqLkN6h6F9YVe1NJCzPLUwNZ0mZmvVrr2J3GJu1vEWw+8iE4WcREOE1d98jWwjymVwae5uY9ioPZSjM1fQxtFy6ph+62Rr39zWuPYmLhO4QBicrGQ5hSQkluYWMjyLcYW72gAkAHXU3HRIcCGz5mrnVLh7XTNIabb5ZBlFj5GF1/phWpx4VJtlZviVEkNXD77wpPtY/BmShwF/Crvsk34kCcOH73jSfax+BMq+4KdoIKHEHS1T+LiNPIzNkc7xnPiIFmAnc13NzKKavQaXiWm7VVc+kUJN/rewv8Aev8A48//AOam9ntqqbEGvdSScY1jsrjxb2WcRmtZ7QToRuSLhJatMZUk9mS6EIVCwIQhAGFVOP7NVMlVUOZC9zHSOIIAsR071ayLLOpTU1Zl4TcNUU1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VMeweBzwVRdNE5jeKcLkC1y5hA3+QqwrIVo4eMXe5V1m1YFVGO7NVL6qocyB7muleQQBYgnQ71a6LLSpTU1qUhNwd0U1+ydX+7ydw/VH7J1f7vJ3D9VctkLH8NHqzXjvoU1+ydX+7ydw/VH7J1f7vJ3D9VctkWR+Gj1Ycd9CstktnaiKtgfJC9rBnuSBYXY4Dn6SFZyxZZW1OCgrIynPM7sVNoPhPDP/AHvVH6prXFVYRHJLDK8EyQ5shzEWzaG43HdzrtUxTTZDd0jBUJhIvREDnMze0yvb+amyuHC8PMUQY4g2c91wLcqR0g7rjuUtakcjdXDxP7zPXauheZI7i3lB7iD+S9qSBZpaN8mKTTPaRHFE2OMkaOLtSQfvDtTMsWWVEY2JbuUn7IN4E+H3IHtc+8/OiXX7Hp4IxGxB1p9x8kytmpoI5CDJGx5G7MwOt1XCzT0Ucd+LYxl9+Vgbe269hrvPemuN/wDLh2MOH7ec3rTV8h/0XegrcsEXS5sfHdOfFb1D0LOVrddB3BfVtVsjRym8lLTvPzqdhPoWKPY+jhN4qSnYeltOwHvsuj+MVthP8O77nztstsJV4i9ohjLYja80jSIwOkH/ANQ+RvaRvX0Vsvs3Fh9NHBCDlbqXHlPeeU93lJ7tBzKVDQNy9JWrXlU8jenSUNirvZAOtQUl9P8Aix+DMqL45vyh3hfX9RSMkAEjGvANwHNDhfdexWj+hYP7CL/CZ+i0pYlU45bFKlHO73Pkjjm/KHeFdvsfHXpa237w38Jqsr+hYP7CL/CZ+i301GyO/FsawHflaG367KauJVSOWwU6OR3ubkIQkxgFXUXCNXzzVcdHhgnZTVEtO5/hzGaxuLQcr2C1wAdL796sVU1sntgaGpxloo6upz4lUuzU0PGNbaRwyuN9DpfqK2pRzJ6XKyZZ+zmIVE8Oarp/BZcxHF8c2XxRazs7dNddFKqv9pdu5jR0ngsMlPWV0/g8TaiPK+Lxi10jmG46CL/KB13KO2koq/B4W1rK6arbG5nhMMwaWPY5waTGALs1I3br3voQThtvpfZEZi0UKuds8dqjW4TFQTcWK2KfVzQ5o8VjhKWkauY0uIG4kC60B1ZhWJ0EctXLV0ta6SNwmDbskaAQW23XuNBYWvpuKhUnbcnMWaSlas2jmZjNNRjJxEtNJK7xTnzMc4Czr2toNLKCxOtqsTxWooqaofS0tGxhnfEBxr5JBma1rjyQB1cl176Wj8NoaiDaOliqZjUZaSUxSuaA90bi7xZLaFzXAi/OCFaNO2/S9iHItZF1W1JPVY1VVvF1UtJQUspp28RlEssrOW5zyDZu7ToIXdsXjVTFXVWG10nHSRME8ExaA+SFxA8YDS4JAv1qrptLfXoTmHy6hNs8XfSUFXPDl4yKMvbmF23Ft4uLjtUfwj7TSUFHmpwDVTSMp4Ad3GSbjY77AE26bJO2y2XrqXDKmV9fLU5o7VMUrW8WWuID3RW1YW7/ACgbkU6d7N82RKVizMArXTUtNLJbPJDG91hYXcwONhzC5KkFW+L7RywUOD01NIyGorI4mcc+1oYmRMdLJZ2hcLgC/SuZ2IyYZWUJbiL62lqZhTyslkjkex8nucjCzVrc1hbdr5RaeG2GYsyplyMc75LSe4EqusG4Q8TrKdtRTYZG+B18v/HAOdlcWutmYOcEahWDX+5S/Qf6pSbwJ/AlJ9Kf8eRRCyg5NX1X1Je5JbI7eR1z5YXxyU9ZF7pBLbMBp4zT8ZtyNdN4NrEEtF1XW18Yi2gwOWPSSYVMUhHxmMaC0HpsZHdw6FzDE5MUqq2+IOoaSmlNPG2KSOOWSSP3SRzn6ltzYAaHsN7OmnqtF9ojNbRlnXRdVjhm2lTFh+LtfI2oqsPLgyYAESRuGaKRwboSBe/0esqR2Dw6SVtPVjE5qpr2XmjcWGLO5vJDQLxZXX00Oiq6bSbbJUrj7dF1X21uGOY+WSbGX0hJJgjzxRRsFhYOB1lFxv8AKo/9s6ibZh9Xxhjq2WY6RobfMydsZda2UZm79Oc2QqTaTXkRmsWjdF1XMDa6PDq+vqKl3GyUUksULW2ZT2jdJHbWzn7rkjetGzFdVik/pWuqXOgZSvLKZo0c1rRaVxuLyOLb6jTOjheIZvAs26WuEbaGWgw2oqafLxsfF2ztLm+NIxhuARzOPOljB8CxKvpW1j8QlgqJW8bDDE1ogY12sbXtIu+4tqd1+dRW0e078Q2XrHzANqYpGQTgbuMjniuR1gtOnSVeNL2lz1swctBxx7amaCowaNmTLWSFst2EmwYx3ia+LqTvunC6rja735sz9c78KNbsVxCpxHFJqGlndS01LGx1RJGBxr3yDMxjHOHiix3joKq4XSt6/ELlg3UdtFippKSpqA3OYYpJcubLmyNLrXsbXtvsk3B8QqcOxSKgqp31VNVRufTSSAca18YJfG5w5Wg3npHlTJwgfBWI/ZZ/w3KuS0kuTJvoduzeLGrpKaoLchmiZJlzZsucA2vYX377KTS7wefBOHfZYfUCgtosTqq3Exh9JM6miiiE1TMxoMnjmzImE8kkEG/6WJkvJpBeyH66zdVzR1dVhWJ0tLPUSVdHWB7YnzAGWKVgvYvAGYG439I3WN/Daurxmsq2U9U+koKSQwF0IHGzSt5fjO5IHk6RvvpPCe99OoZiyLoJSx+ztTHRuhGIS8bnDvCXxxmRsQIzMsdL5QRmO690oUGNOosVooIcSdX09S58crJJY5HwvAux2Zm655t2jt+lojTzXswcrDZh+0k0mM1dG7JxEVPFK2zTnzPy3u69iNTzJrSBg/8A1LiP2OD0tT+oqJJq3RBEFXvBT7tjv/dKj1ihCtHuS9CXujZwp0krPAK2FjpPAqkSSMaCXGJ9g8gDfaw6r35lFbc7cQ4lR+B4YTPU1eRmVsbhxbMzXPdISPFFhbtvzIQt6MVKGZ+7/sxnK0rdTpxykEOM7NRjURxVLPuwBv5Lr4RfhDAPtj/VahCqtXHyf1NHsRrcWbg+N17qzMylr2xSRzZHFgfG0tcxxA0Orv8AT0rXQ7QNrdo6WaJrvBhSzxRSOYWiUsOaRzM2pYC8Nvbe0oQtFFOnn52sZZnnynrZbG48GqsRpa8mJktTJVQSua7i5GSWu0OA5QsO267NjHuxDF6vEmse2kbA2kgc5pbxozB73gHW1x/q6QQBCrNWp8Tm9AjJueU7uFvDJZKSCaBhkko6mKqyAXLmx3zaDfa99OYFQe23CTTVuF1EVHnlmmhcXMEbhxUbbOlfISLNDWg8+ptZCEYeKnG791k1JOLsuZzbVYaPBcBrZIfCKWmiY2ojyZ/apYmDOW84aWg9dlL4PU4DLPTtpoqY1D3AxhtKQ5rmgvBJLRkIy8/OhCmMc8G77XKueWSXkP1ePaZfoP8AVKqngw4Q6KiwiniqJsszDKSwRPc7xpXubbK0g3Dh3rKFGGpqpFp+H1LVZuFrEts/DNimKNxCWF8NHTMdHSslblke59w+Ut3gWJ7m23FL+G0dBQVlfBjNPHd9RJPTzywF7HxSa5A8A2ym/a4rKEU3mm4bL9Ak7RUhxwbFsKp6WqqaNkbKZjhHM6KncA4i1vFy3e0cbzA7ylXCW0gxyjdgfuT2ymtbEHCAMy+13B0ac19BzgbtbiFbh5YzlfbQhTu0jl2cxCgilxF+KxCXE/CpQ1k0Blle2/tLIWuad+4W5rc1lqo2kbH1Ydo5ssgcOgipZcIQtJRtlfVoiLv+ZYm0fwDVf9uk/wDrlR2D4S6r2ahgZbPLQhrb7sxZ4t/JeywhKXtC/ibHBs3wnU1Nh8cVXnjraaMQvgdG7jHPjAa3ILWOaw5+dLuI4PLBsviElQwxzVdQ2qcwjVgknhDWkbxo0Gx1GbVCEy4qEo25tMyjJyv4DNtf782Z+ud+FGtLq9uD43Wy1YLaTEGROZNlJYySJuUscRexN3Hu8thCygszjF80/mWk7JszT1wxfHKSamDnUVAyUmbKQx8soy5G3GthlP8AdPSLtvCB8FYj9ln/AA3IQqz0qKPSyLQd43FHY7hSw+mw+ihmmc2WKCNjxxEps5rQCLtYQexapcbZQYv4e8OOHYlTw2nEbiGPaG5M4tdoLbc19fIbCE1KjGMlb3tH8xeNVyT8DbU4o3GMXoPA7vpKEvmlmyuEZeWjIxjiPGNwO89C59nccZglbiFNXZo4aiofVQTFjjG4SWu0kA2IsB1g3tcXELJRTqcLlb9zRzeTOeuEnaOKtoaSSF734f4cyOqcxrxeJt8wdoDkvbrOW3Mo+uraF+J4KMMiibDHUkSSxQZGF7meJHnyjO6wcTrpcdKwhXVNKL8LojNdjNg//UuI/Y4PS1P11lCSqbryRvE//9k=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4386B3B-3E98-4859-9667-BA74A97AAACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5861050" y="12160250"/>
+          <a:ext cx="304800" cy="304669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="EEFF"/>
+      <sheetName val="LOCFUND EEFF Summary"/>
+      <sheetName val="Country Analysis"/>
+      <sheetName val="Tablas"/>
+      <sheetName val="IMF"/>
+      <sheetName val="Datos sociales"/>
+      <sheetName val="Desembolsos"/>
+      <sheetName val="Graficos"/>
+      <sheetName val="Tabl ppt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="B6">
+            <v>27586036.410000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5757,7 +6802,7 @@
       <c r="F162" s="93"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5768,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5551A1-BA20-4525-8460-0E38FBABFC84}">
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView showGridLines="0" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5866,7 +6911,7 @@
       </c>
       <c r="F8" s="150"/>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="72" t="s">
         <v>121</v>
       </c>
@@ -7035,7 +8080,7 @@
         <v>6.2726979194662849E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="72" t="s">
         <v>66</v>
       </c>
@@ -7128,7 +8173,7 @@
         <v>1.1848457282093737E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>84</v>
       </c>
@@ -7147,7 +8192,7 @@
       </c>
       <c r="F76" s="44"/>
     </row>
-    <row r="77" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>75</v>
       </c>
@@ -7796,7 +8841,7 @@
       <c r="F107" s="76"/>
       <c r="G107" s="59"/>
     </row>
-    <row r="108" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="97" t="s">
         <v>58</v>
       </c>
@@ -7819,7 +8864,7 @@
       <c r="F108" s="121"/>
       <c r="G108" s="59"/>
     </row>
-    <row r="109" spans="1:9" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="72" t="s">
         <v>76</v>
       </c>
@@ -7838,7 +8883,7 @@
       </c>
       <c r="F109" s="103"/>
     </row>
-    <row r="110" spans="1:9" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="72" t="s">
         <v>59</v>
       </c>
@@ -8263,7 +9308,7 @@
         <v>-2250</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="72" t="str">
         <f t="shared" si="25"/>
         <v>Advisory Committee Meetings Costs</v>
@@ -8915,7 +9960,7 @@
       <c r="D184" s="93"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -8965,10 +10010,10 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="181">
+      <c r="D2" s="176">
         <v>44130</v>
       </c>
-      <c r="E2" s="182">
+      <c r="E2" s="177">
         <v>3000000</v>
       </c>
     </row>
@@ -8982,10 +10027,10 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="181">
+      <c r="D3" s="176">
         <v>44134</v>
       </c>
-      <c r="E3" s="182">
+      <c r="E3" s="177">
         <v>1200000</v>
       </c>
     </row>
@@ -8999,10 +10044,10 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="181">
+      <c r="D4" s="176">
         <v>44174</v>
       </c>
-      <c r="E4" s="182">
+      <c r="E4" s="177">
         <v>750000</v>
       </c>
     </row>
@@ -9016,10 +10061,10 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="181">
+      <c r="D5" s="176">
         <v>44188</v>
       </c>
-      <c r="E5" s="182">
+      <c r="E5" s="177">
         <v>5000000</v>
       </c>
     </row>
@@ -9033,10 +10078,10 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="181">
+      <c r="D6" s="176">
         <v>44194</v>
       </c>
-      <c r="E6" s="182">
+      <c r="E6" s="177">
         <v>2000000</v>
       </c>
     </row>
@@ -9050,10 +10095,10 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="181">
+      <c r="D7" s="176">
         <v>44196</v>
       </c>
-      <c r="E7" s="182">
+      <c r="E7" s="177">
         <v>500000</v>
       </c>
     </row>
@@ -9067,10 +10112,10 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="176">
         <v>44208</v>
       </c>
-      <c r="E8" s="182">
+      <c r="E8" s="177">
         <v>5000000</v>
       </c>
     </row>
@@ -9084,10 +10129,10 @@
       <c r="C9" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="181">
+      <c r="D9" s="176">
         <v>44215</v>
       </c>
-      <c r="E9" s="182">
+      <c r="E9" s="177">
         <v>1000000</v>
       </c>
     </row>
@@ -9101,10 +10146,10 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="181">
+      <c r="D10" s="176">
         <v>44246</v>
       </c>
-      <c r="E10" s="182">
+      <c r="E10" s="177">
         <v>840000</v>
       </c>
     </row>
@@ -9118,10 +10163,10 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="176">
         <v>44258</v>
       </c>
-      <c r="E11" s="182">
+      <c r="E11" s="177">
         <v>4000000</v>
       </c>
     </row>
@@ -9135,10 +10180,10 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="181">
+      <c r="D12" s="176">
         <v>44280</v>
       </c>
-      <c r="E12" s="182">
+      <c r="E12" s="177">
         <v>2800000</v>
       </c>
     </row>
@@ -9152,10 +10197,10 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="176">
         <v>44281</v>
       </c>
-      <c r="E13" s="182">
+      <c r="E13" s="177">
         <v>1900000</v>
       </c>
     </row>
@@ -9166,10 +10211,3533 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3991BDB-394E-4959-A32F-41609BB0CB2D}">
+  <dimension ref="A1:AU165"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="183" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7265625" style="183" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="183" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" style="183" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" style="183" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="183" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="183" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="183" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" style="183" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="183" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="184" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="184" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" style="184" customWidth="1"/>
+    <col min="14" max="14" width="7.90625" style="183" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.36328125" style="183" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" style="183" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="183" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1796875" style="183" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.81640625" style="183" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.7265625" style="183" customWidth="1"/>
+    <col min="23" max="23" width="22.26953125" style="183" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" style="183" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.7265625" style="183" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.453125" style="183" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" style="183" customWidth="1"/>
+    <col min="28" max="28" width="2.7265625" style="183" customWidth="1"/>
+    <col min="29" max="29" width="34.7265625" style="183" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" style="183" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.1796875" style="183" customWidth="1"/>
+    <col min="34" max="34" width="14.1796875" style="183" customWidth="1"/>
+    <col min="35" max="35" width="18.453125" style="183" customWidth="1"/>
+    <col min="36" max="36" width="12.81640625" style="183" customWidth="1"/>
+    <col min="37" max="37" width="9" style="183" customWidth="1"/>
+    <col min="38" max="38" width="7.81640625" style="183" customWidth="1"/>
+    <col min="39" max="39" width="8.81640625" style="183" customWidth="1"/>
+    <col min="40" max="40" width="12.1796875" style="183" customWidth="1"/>
+    <col min="41" max="41" width="11.453125" style="183"/>
+    <col min="42" max="42" width="3.453125" style="183" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.453125" style="183" customWidth="1"/>
+    <col min="44" max="44" width="10.81640625" style="183" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" style="183" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7265625" style="183" customWidth="1"/>
+    <col min="47" max="47" width="13.81640625" style="183" customWidth="1"/>
+    <col min="48" max="16384" width="11.453125" style="183"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA1" s="185"/>
+    </row>
+    <row r="2" spans="1:42" s="186" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="188" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="188" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="188" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="188" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="188" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="188" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="189" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="189" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="189" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="189" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="189" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="S2" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="192" t="s">
+        <v>187</v>
+      </c>
+      <c r="X2" s="192" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2" s="192" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" s="192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="193"/>
+      <c r="B3" s="194">
+        <v>1</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="195">
+        <v>44197</v>
+      </c>
+      <c r="F3" s="196">
+        <v>198.1950577915452</v>
+      </c>
+      <c r="G3" s="197">
+        <v>72224</v>
+      </c>
+      <c r="H3" s="198">
+        <v>0.48166814355338944</v>
+      </c>
+      <c r="I3" s="199">
+        <v>0.233786552946389</v>
+      </c>
+      <c r="J3" s="200">
+        <v>2744.1717128869236</v>
+      </c>
+      <c r="K3" s="199">
+        <v>0.31070784792650857</v>
+      </c>
+      <c r="L3" s="201">
+        <v>4.5695447904062691E-3</v>
+      </c>
+      <c r="M3" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="203">
+        <v>0.47</v>
+      </c>
+      <c r="S3" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="205" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="206">
+        <v>4000000</v>
+      </c>
+      <c r="Y3" s="206">
+        <v>2744.1717128869236</v>
+      </c>
+      <c r="Z3" s="206">
+        <v>1457.634732263864</v>
+      </c>
+      <c r="AA3" s="207"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="208"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="209"/>
+      <c r="AP3" s="209"/>
+    </row>
+    <row r="4" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="193"/>
+      <c r="B4" s="194">
+        <f>+B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="195">
+        <v>44197</v>
+      </c>
+      <c r="F4" s="196">
+        <v>131.87041130758016</v>
+      </c>
+      <c r="G4" s="197">
+        <v>122185</v>
+      </c>
+      <c r="H4" s="198">
+        <v>0.77309817080656384</v>
+      </c>
+      <c r="I4" s="199">
+        <v>0.11938453983713222</v>
+      </c>
+      <c r="J4" s="200">
+        <v>1079.2684151702758</v>
+      </c>
+      <c r="K4" s="199">
+        <v>0.12219977526837363</v>
+      </c>
+      <c r="L4" s="201">
+        <v>1.0546143729520237E-2</v>
+      </c>
+      <c r="M4" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q4" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" s="210" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="191"/>
+      <c r="W4" s="205" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4" s="206">
+        <v>5000000</v>
+      </c>
+      <c r="Y4" s="206">
+        <v>1079.2684151702758</v>
+      </c>
+      <c r="Z4" s="206">
+        <v>4632.7678358039893</v>
+      </c>
+      <c r="AA4" s="207"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AI4" s="209"/>
+      <c r="AJ4" s="209"/>
+      <c r="AK4" s="209"/>
+      <c r="AL4" s="209"/>
+      <c r="AM4" s="209"/>
+      <c r="AN4" s="209"/>
+      <c r="AO4" s="209"/>
+      <c r="AP4" s="209"/>
+    </row>
+    <row r="5" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="193"/>
+      <c r="B5" s="194">
+        <f t="shared" ref="B5:B13" si="0">+B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="195">
+        <v>44197</v>
+      </c>
+      <c r="F5" s="196">
+        <v>107.79058215120176</v>
+      </c>
+      <c r="G5" s="197">
+        <v>108038</v>
+      </c>
+      <c r="H5" s="198">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="I5" s="199">
+        <v>0.84</v>
+      </c>
+      <c r="J5" s="200">
+        <v>997.7098997686162</v>
+      </c>
+      <c r="K5" s="199">
+        <v>6.5707975485288214E-2</v>
+      </c>
+      <c r="L5" s="201">
+        <v>2.2645574759971192E-2</v>
+      </c>
+      <c r="M5" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="202">
+        <v>2020</v>
+      </c>
+      <c r="R5" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="205" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="206">
+        <v>5000000</v>
+      </c>
+      <c r="Y5" s="206">
+        <v>997.7098997686162</v>
+      </c>
+      <c r="Z5" s="206">
+        <v>5011.4767841429402</v>
+      </c>
+      <c r="AA5" s="207"/>
+      <c r="AE5" s="208"/>
+      <c r="AF5" s="208"/>
+      <c r="AG5" s="208"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="209"/>
+      <c r="AN5" s="209"/>
+      <c r="AO5" s="209"/>
+      <c r="AP5" s="209"/>
+    </row>
+    <row r="6" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="193"/>
+      <c r="B6" s="194">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="195">
+        <v>44197</v>
+      </c>
+      <c r="F6" s="196">
+        <v>55.846369229999993</v>
+      </c>
+      <c r="G6" s="197">
+        <v>45909</v>
+      </c>
+      <c r="H6" s="198">
+        <v>0.746017660808588</v>
+      </c>
+      <c r="I6" s="199">
+        <v>0.75943641243182414</v>
+      </c>
+      <c r="J6" s="200">
+        <v>1216.4579762138142</v>
+      </c>
+      <c r="K6" s="199">
+        <v>0.10735663014860243</v>
+      </c>
+      <c r="L6" s="201">
+        <v>5.7848344387347397E-4</v>
+      </c>
+      <c r="M6" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O6" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="202">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="203">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="211"/>
+      <c r="W6" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="206">
+        <v>3000000</v>
+      </c>
+      <c r="Y6" s="206">
+        <v>2244.7568708177964</v>
+      </c>
+      <c r="Z6" s="206">
+        <v>1336.4476300308897</v>
+      </c>
+      <c r="AA6" s="207"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AI6" s="209"/>
+      <c r="AJ6" s="209"/>
+      <c r="AK6" s="209"/>
+      <c r="AL6" s="209"/>
+      <c r="AM6" s="209"/>
+      <c r="AN6" s="209"/>
+      <c r="AO6" s="209"/>
+      <c r="AP6" s="209"/>
+    </row>
+    <row r="7" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="193"/>
+      <c r="B7" s="194">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="195">
+        <v>44228</v>
+      </c>
+      <c r="F7" s="196">
+        <v>43.945605260000001</v>
+      </c>
+      <c r="G7" s="197">
+        <v>19577</v>
+      </c>
+      <c r="H7" s="198">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="I7" s="199">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="J7" s="200">
+        <v>2244.7568708177964</v>
+      </c>
+      <c r="K7" s="199">
+        <v>0.19810756957177622</v>
+      </c>
+      <c r="L7" s="201">
+        <v>6.5556266274076121E-3</v>
+      </c>
+      <c r="M7" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="203">
+        <v>0.43</v>
+      </c>
+      <c r="S7" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="191"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="206">
+        <v>1200000</v>
+      </c>
+      <c r="Y7" s="206">
+        <v>1216.4579762138142</v>
+      </c>
+      <c r="Z7" s="206">
+        <v>986.47057560916403</v>
+      </c>
+      <c r="AA7" s="207"/>
+      <c r="AE7" s="208"/>
+      <c r="AF7" s="208"/>
+      <c r="AG7" s="208"/>
+      <c r="AI7" s="209"/>
+      <c r="AJ7" s="209"/>
+      <c r="AK7" s="209"/>
+      <c r="AL7" s="209"/>
+      <c r="AM7" s="209"/>
+      <c r="AN7" s="209"/>
+      <c r="AO7" s="209"/>
+      <c r="AP7" s="209"/>
+    </row>
+    <row r="8" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="193"/>
+      <c r="B8" s="194">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="195">
+        <v>44228</v>
+      </c>
+      <c r="F8" s="196">
+        <v>58.699644520000007</v>
+      </c>
+      <c r="G8" s="197">
+        <v>17685</v>
+      </c>
+      <c r="H8" s="198">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="I8" s="199">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="J8" s="200">
+        <v>3319.1769590048066</v>
+      </c>
+      <c r="K8" s="199">
+        <v>0.29292886409008972</v>
+      </c>
+      <c r="L8" s="201">
+        <v>2.9469718499072098E-3</v>
+      </c>
+      <c r="M8" s="201" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O8" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="202">
+        <v>2019</v>
+      </c>
+      <c r="R8" s="203">
+        <v>0.35</v>
+      </c>
+      <c r="S8" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8" s="191"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="205" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="206">
+        <v>1200000</v>
+      </c>
+      <c r="Y8" s="206">
+        <v>1216.4579762138142</v>
+      </c>
+      <c r="Z8" s="206">
+        <v>986.47057560916403</v>
+      </c>
+      <c r="AA8" s="207"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="209"/>
+      <c r="AK8" s="209"/>
+      <c r="AL8" s="209"/>
+      <c r="AM8" s="209"/>
+      <c r="AN8" s="209"/>
+      <c r="AO8" s="209"/>
+      <c r="AP8" s="209"/>
+    </row>
+    <row r="9" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="193"/>
+      <c r="B9" s="194">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="194" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="195">
+        <v>44228</v>
+      </c>
+      <c r="F9" s="196">
+        <v>11.210213550000001</v>
+      </c>
+      <c r="G9" s="197">
+        <v>22969</v>
+      </c>
+      <c r="H9" s="198">
+        <v>0.81026601071008753</v>
+      </c>
+      <c r="I9" s="199">
+        <v>0.12260002612216465</v>
+      </c>
+      <c r="J9" s="200">
+        <v>488.05840698332537</v>
+      </c>
+      <c r="K9" s="199">
+        <v>5.4893533571400893E-2</v>
+      </c>
+      <c r="L9" s="201">
+        <v>1.327665669106155E-2</v>
+      </c>
+      <c r="M9" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="202">
+        <v>2018</v>
+      </c>
+      <c r="R9" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="203">
+        <v>0.19</v>
+      </c>
+      <c r="T9" s="191"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="205" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" s="206">
+        <v>840000</v>
+      </c>
+      <c r="Y9" s="206">
+        <v>3319.1769590048066</v>
+      </c>
+      <c r="Z9" s="206">
+        <v>253.07478642291443</v>
+      </c>
+      <c r="AA9" s="207"/>
+      <c r="AE9" s="208"/>
+      <c r="AF9" s="208"/>
+      <c r="AG9" s="208"/>
+      <c r="AI9" s="209"/>
+      <c r="AJ9" s="209"/>
+      <c r="AK9" s="209"/>
+      <c r="AL9" s="209"/>
+      <c r="AM9" s="209"/>
+      <c r="AN9" s="209"/>
+      <c r="AO9" s="209"/>
+      <c r="AP9" s="209"/>
+    </row>
+    <row r="10" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="193"/>
+      <c r="B10" s="194">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="212" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="195">
+        <v>44228</v>
+      </c>
+      <c r="F10" s="196">
+        <v>7.1121520655184876</v>
+      </c>
+      <c r="G10" s="197">
+        <v>10143</v>
+      </c>
+      <c r="H10" s="198">
+        <v>0.68273686286108648</v>
+      </c>
+      <c r="I10" s="199">
+        <v>0.38538893818396924</v>
+      </c>
+      <c r="J10" s="200">
+        <v>701.18821507625819</v>
+      </c>
+      <c r="K10" s="199">
+        <v>0.12305865480453812</v>
+      </c>
+      <c r="L10" s="201">
+        <v>0</v>
+      </c>
+      <c r="M10" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O10" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="R10" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="191"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="205" t="s">
+        <v>162</v>
+      </c>
+      <c r="X10" s="206">
+        <v>750000</v>
+      </c>
+      <c r="Y10" s="206">
+        <v>488.05840698332537</v>
+      </c>
+      <c r="Z10" s="206">
+        <v>1536.7013235889694</v>
+      </c>
+      <c r="AA10" s="207"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="208"/>
+      <c r="AG10" s="208"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="209"/>
+      <c r="AN10" s="209"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="209"/>
+    </row>
+    <row r="11" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="193"/>
+      <c r="B11" s="194">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="212" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="195">
+        <v>44166</v>
+      </c>
+      <c r="F11" s="196">
+        <v>30.076141659858756</v>
+      </c>
+      <c r="G11" s="197">
+        <v>12534</v>
+      </c>
+      <c r="H11" s="198">
+        <v>0.51053135471517475</v>
+      </c>
+      <c r="I11" s="199">
+        <v>0.5327110260092548</v>
+      </c>
+      <c r="J11" s="200">
+        <v>2399.5645173016401</v>
+      </c>
+      <c r="K11" s="199">
+        <v>0.42112399391043176</v>
+      </c>
+      <c r="L11" s="201">
+        <v>6.8574455874215517E-3</v>
+      </c>
+      <c r="M11" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q11" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S11" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="191"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="205" t="s">
+        <v>202</v>
+      </c>
+      <c r="X11" s="206">
+        <v>500000</v>
+      </c>
+      <c r="Y11" s="206">
+        <v>701.18821507625819</v>
+      </c>
+      <c r="Z11" s="206">
+        <v>713.07530453235324</v>
+      </c>
+      <c r="AA11" s="207"/>
+      <c r="AE11" s="208"/>
+      <c r="AF11" s="208"/>
+      <c r="AG11" s="208"/>
+      <c r="AI11" s="209"/>
+      <c r="AJ11" s="209"/>
+      <c r="AK11" s="209"/>
+      <c r="AL11" s="209"/>
+      <c r="AM11" s="209"/>
+      <c r="AN11" s="209"/>
+      <c r="AO11" s="209"/>
+      <c r="AP11" s="209"/>
+    </row>
+    <row r="12" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="193"/>
+      <c r="B12" s="194">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="195">
+        <v>44228</v>
+      </c>
+      <c r="F12" s="196">
+        <v>44.106789179131319</v>
+      </c>
+      <c r="G12" s="197">
+        <v>99635</v>
+      </c>
+      <c r="H12" s="198">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I12" s="199">
+        <v>0.11</v>
+      </c>
+      <c r="J12" s="200">
+        <v>442.68368724977489</v>
+      </c>
+      <c r="K12" s="199">
+        <v>2.184366363612824E-2</v>
+      </c>
+      <c r="L12" s="201">
+        <v>3.4466711897430543E-3</v>
+      </c>
+      <c r="M12" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q12" s="202">
+        <v>2019</v>
+      </c>
+      <c r="R12" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12" s="213" t="s">
+        <v>195</v>
+      </c>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="205" t="s">
+        <v>204</v>
+      </c>
+      <c r="X12" s="206">
+        <v>2800000</v>
+      </c>
+      <c r="Y12" s="206">
+        <v>2399.5645173016401</v>
+      </c>
+      <c r="Z12" s="206">
+        <v>1166.8783980639362</v>
+      </c>
+      <c r="AA12" s="207"/>
+      <c r="AE12" s="208"/>
+      <c r="AF12" s="208"/>
+      <c r="AG12" s="208"/>
+      <c r="AI12" s="209"/>
+      <c r="AJ12" s="209"/>
+      <c r="AK12" s="209"/>
+      <c r="AL12" s="209"/>
+      <c r="AM12" s="209"/>
+      <c r="AN12" s="209"/>
+      <c r="AO12" s="209"/>
+      <c r="AP12" s="209"/>
+    </row>
+    <row r="13" spans="1:42" s="204" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="193"/>
+      <c r="B13" s="194">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="195">
+        <v>44136</v>
+      </c>
+      <c r="F13" s="196">
+        <v>46.214161560186461</v>
+      </c>
+      <c r="G13" s="197">
+        <v>43575</v>
+      </c>
+      <c r="H13" s="198">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I13" s="199">
+        <v>0.1605</v>
+      </c>
+      <c r="J13" s="200">
+        <v>1060.5659566307852</v>
+      </c>
+      <c r="K13" s="199">
+        <v>8.1676238477534482E-2</v>
+      </c>
+      <c r="L13" s="201">
+        <v>5.2903339221642866E-5</v>
+      </c>
+      <c r="M13" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" s="202" t="s">
+        <v>193</v>
+      </c>
+      <c r="O13" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="197" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="202">
+        <v>2018</v>
+      </c>
+      <c r="R13" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="S13" s="213" t="s">
+        <v>195</v>
+      </c>
+      <c r="T13" s="191"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="205" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" s="206">
+        <v>2000000</v>
+      </c>
+      <c r="Y13" s="206">
+        <v>442.68368724977489</v>
+      </c>
+      <c r="Z13" s="206">
+        <v>4517.8985754483929</v>
+      </c>
+      <c r="AA13" s="207"/>
+      <c r="AE13" s="208"/>
+      <c r="AF13" s="208"/>
+      <c r="AG13" s="208"/>
+      <c r="AI13" s="209"/>
+      <c r="AJ13" s="209"/>
+      <c r="AK13" s="209"/>
+      <c r="AL13" s="209"/>
+      <c r="AM13" s="209"/>
+      <c r="AN13" s="209"/>
+      <c r="AO13" s="209"/>
+      <c r="AP13" s="209"/>
+    </row>
+    <row r="14" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="214"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="225"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="226"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="227" t="s">
+        <v>82</v>
+      </c>
+      <c r="X14" s="228">
+        <v>1000000</v>
+      </c>
+      <c r="Y14" s="228">
+        <v>1060.5659566307852</v>
+      </c>
+      <c r="Z14" s="228">
+        <v>942.89279582083543</v>
+      </c>
+      <c r="AA14" s="229"/>
+      <c r="AE14" s="231"/>
+      <c r="AF14" s="231"/>
+      <c r="AG14" s="231"/>
+      <c r="AI14" s="232"/>
+      <c r="AJ14" s="232"/>
+      <c r="AK14" s="232"/>
+      <c r="AL14" s="232"/>
+      <c r="AM14" s="232"/>
+      <c r="AN14" s="232"/>
+      <c r="AO14" s="232"/>
+      <c r="AP14" s="232"/>
+    </row>
+    <row r="15" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="214"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="233"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="221"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="226"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="227"/>
+      <c r="X15" s="228"/>
+      <c r="Y15" s="228"/>
+      <c r="Z15" s="228"/>
+      <c r="AA15" s="229"/>
+      <c r="AE15" s="231"/>
+      <c r="AF15" s="231"/>
+      <c r="AG15" s="231"/>
+      <c r="AI15" s="232"/>
+      <c r="AJ15" s="232"/>
+      <c r="AK15" s="232"/>
+      <c r="AL15" s="232"/>
+      <c r="AM15" s="232"/>
+      <c r="AN15" s="232"/>
+      <c r="AO15" s="232"/>
+      <c r="AP15" s="232"/>
+    </row>
+    <row r="16" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="214"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="221"/>
+      <c r="Q16" s="234"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="225"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="226"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="228"/>
+      <c r="Y16" s="228"/>
+      <c r="Z16" s="228"/>
+      <c r="AA16" s="229"/>
+      <c r="AE16" s="231"/>
+      <c r="AF16" s="231"/>
+      <c r="AG16" s="231"/>
+      <c r="AI16" s="232"/>
+      <c r="AJ16" s="232"/>
+      <c r="AK16" s="232"/>
+      <c r="AL16" s="232"/>
+      <c r="AM16" s="232"/>
+      <c r="AN16" s="232"/>
+      <c r="AO16" s="232"/>
+      <c r="AP16" s="232"/>
+    </row>
+    <row r="17" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="214"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="234"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="225"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="235"/>
+      <c r="W17" s="227"/>
+      <c r="X17" s="228"/>
+      <c r="Y17" s="228"/>
+      <c r="Z17" s="228"/>
+      <c r="AA17" s="229"/>
+      <c r="AE17" s="231"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="231"/>
+      <c r="AI17" s="232"/>
+      <c r="AJ17" s="232"/>
+      <c r="AK17" s="232"/>
+      <c r="AL17" s="232"/>
+      <c r="AM17" s="232"/>
+      <c r="AN17" s="232"/>
+      <c r="AO17" s="232"/>
+      <c r="AP17" s="232"/>
+    </row>
+    <row r="18" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="214"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="234"/>
+      <c r="R18" s="224">
+        <v>0.43</v>
+      </c>
+      <c r="S18" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="T18" s="191"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="235"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="228">
+        <f>+SUM(X3:X14)</f>
+        <v>27290000</v>
+      </c>
+      <c r="Y18" s="228">
+        <f>+SUM(Y3:Y14)</f>
+        <v>17910.060593317827</v>
+      </c>
+      <c r="Z18" s="228">
+        <f>+SUM(Z3:Z14)</f>
+        <v>23541.789317337418</v>
+      </c>
+      <c r="AA18" s="229"/>
+      <c r="AE18" s="231"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="231"/>
+      <c r="AI18" s="232"/>
+      <c r="AJ18" s="232"/>
+      <c r="AK18" s="232"/>
+      <c r="AL18" s="232"/>
+      <c r="AM18" s="232"/>
+      <c r="AN18" s="232"/>
+      <c r="AO18" s="232"/>
+      <c r="AP18" s="232"/>
+    </row>
+    <row r="19" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="214"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="246"/>
+      <c r="O19" s="246"/>
+      <c r="P19" s="243"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="224">
+        <v>0.59</v>
+      </c>
+      <c r="S19" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T19" s="191"/>
+      <c r="U19" s="226"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="183"/>
+      <c r="Z19" s="183"/>
+      <c r="AA19" s="229"/>
+      <c r="AI19" s="232"/>
+      <c r="AJ19" s="232"/>
+      <c r="AK19" s="232"/>
+      <c r="AL19" s="232"/>
+      <c r="AM19" s="232"/>
+      <c r="AN19" s="232"/>
+      <c r="AO19" s="232"/>
+      <c r="AP19" s="232"/>
+    </row>
+    <row r="20" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="214"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="224">
+        <v>0.34</v>
+      </c>
+      <c r="S20" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T20" s="191"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="183"/>
+      <c r="Z20" s="183"/>
+      <c r="AA20" s="229"/>
+      <c r="AI20" s="232"/>
+      <c r="AJ20" s="232"/>
+      <c r="AK20" s="232"/>
+      <c r="AL20" s="232"/>
+      <c r="AM20" s="232"/>
+      <c r="AN20" s="232"/>
+      <c r="AO20" s="232"/>
+      <c r="AP20" s="232"/>
+    </row>
+    <row r="21" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="214"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="183">
+        <f>+COUNTIF($H$3:$H$13,"&lt;=20%")</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="183">
+        <f>+COUNTIF($I$3:$I$13,"&lt;=20%")</f>
+        <v>4</v>
+      </c>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S21" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T21" s="191"/>
+      <c r="U21" s="226"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="229"/>
+      <c r="AI21" s="232"/>
+      <c r="AJ21" s="232"/>
+      <c r="AK21" s="232"/>
+      <c r="AL21" s="232"/>
+      <c r="AM21" s="232"/>
+      <c r="AN21" s="232"/>
+      <c r="AO21" s="232"/>
+      <c r="AP21" s="232"/>
+    </row>
+    <row r="22" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="214"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="183">
+        <f>+COUNTIFS($H$3:$H$13,"&gt;20%",$H$3:$H$13,"&lt;=40%")</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="183">
+        <f>+COUNTIFS($I$3:$I$13,"&gt;20%",$I$3:$I$13,"&lt;=40%")</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S22" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" s="191"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="235"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="229"/>
+      <c r="AI22" s="232"/>
+      <c r="AJ22" s="232"/>
+      <c r="AK22" s="232"/>
+      <c r="AL22" s="232"/>
+      <c r="AM22" s="232"/>
+      <c r="AN22" s="232"/>
+      <c r="AO22" s="232"/>
+      <c r="AP22" s="232"/>
+    </row>
+    <row r="23" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="214"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="183">
+        <f>+COUNTIFS($H$3:$H$13,"&gt;40%",$H$3:$H$13,"&lt;=60%")</f>
+        <v>6</v>
+      </c>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="183">
+        <f>+COUNTIFS($I$3:$I$13,"&gt;40%",$I$3:$I$13,"&lt;=60%")</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S23" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="191"/>
+      <c r="U23" s="226"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="229"/>
+      <c r="AI23" s="232"/>
+      <c r="AJ23" s="232"/>
+      <c r="AK23" s="232"/>
+      <c r="AL23" s="232"/>
+      <c r="AM23" s="232"/>
+      <c r="AN23" s="232"/>
+      <c r="AO23" s="232"/>
+      <c r="AP23" s="232"/>
+    </row>
+    <row r="24" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="214"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="183">
+        <f>+COUNTIFS($H$3:$H$13,"&gt;60%",$H$3:$H$13,"&lt;=80%")</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="183">
+        <f>+COUNTIFS($I$3:$I$13,"&gt;60%",$I$3:$I$13,"&lt;=80%")</f>
+        <v>2</v>
+      </c>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S24" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="191"/>
+      <c r="U24" s="226"/>
+      <c r="V24" s="235"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="248"/>
+      <c r="AI24" s="232"/>
+      <c r="AJ24" s="232"/>
+      <c r="AK24" s="232"/>
+      <c r="AL24" s="232"/>
+      <c r="AM24" s="232"/>
+      <c r="AN24" s="232"/>
+      <c r="AO24" s="232"/>
+      <c r="AP24" s="232"/>
+    </row>
+    <row r="25" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="214"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="183">
+        <f>+COUNTIFS($H$3:$H$13,"&gt;80%",$H$3:$H$13,"&lt;=100%")</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="183">
+        <f>+COUNTIFS($I$3:$I$13,"&gt;80%",$I$3:$I$13,"&lt;=100%")</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S25" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T25" s="191"/>
+      <c r="U25" s="226"/>
+      <c r="V25" s="235"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="248"/>
+      <c r="AI25" s="232"/>
+      <c r="AJ25" s="232"/>
+      <c r="AK25" s="232"/>
+      <c r="AL25" s="232"/>
+      <c r="AM25" s="232"/>
+      <c r="AN25" s="232"/>
+      <c r="AO25" s="232"/>
+      <c r="AP25" s="232"/>
+    </row>
+    <row r="26" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="214"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S26" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T26" s="191"/>
+      <c r="U26" s="226"/>
+      <c r="V26" s="235"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="248"/>
+      <c r="AI26" s="232"/>
+      <c r="AJ26" s="232"/>
+      <c r="AK26" s="232"/>
+      <c r="AL26" s="232"/>
+      <c r="AM26" s="232"/>
+      <c r="AN26" s="232"/>
+      <c r="AO26" s="232"/>
+      <c r="AP26" s="232"/>
+    </row>
+    <row r="27" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="214"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S27" s="224">
+        <v>0.19</v>
+      </c>
+      <c r="T27" s="191"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="248"/>
+      <c r="AI27" s="232"/>
+      <c r="AJ27" s="232"/>
+      <c r="AK27" s="232"/>
+      <c r="AL27" s="232"/>
+      <c r="AM27" s="232"/>
+      <c r="AN27" s="232"/>
+      <c r="AO27" s="232"/>
+      <c r="AP27" s="232"/>
+    </row>
+    <row r="28" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="214"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S28" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T28" s="191"/>
+      <c r="U28" s="226"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="248"/>
+      <c r="AI28" s="232"/>
+      <c r="AJ28" s="232"/>
+      <c r="AK28" s="232"/>
+      <c r="AL28" s="232"/>
+      <c r="AM28" s="232"/>
+      <c r="AN28" s="232"/>
+      <c r="AO28" s="232"/>
+      <c r="AP28" s="232"/>
+    </row>
+    <row r="29" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="214"/>
+      <c r="B29" s="250" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S29" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T29" s="191"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="251"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="248"/>
+      <c r="AI29" s="232"/>
+      <c r="AJ29" s="232"/>
+      <c r="AK29" s="232"/>
+      <c r="AL29" s="232"/>
+      <c r="AM29" s="232"/>
+      <c r="AN29" s="232"/>
+      <c r="AO29" s="232"/>
+      <c r="AP29" s="232"/>
+    </row>
+    <row r="30" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="214"/>
+      <c r="B30" s="250" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S30" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T30" s="191"/>
+      <c r="U30" s="226"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="248"/>
+      <c r="AI30" s="232"/>
+      <c r="AJ30" s="232"/>
+      <c r="AK30" s="232"/>
+      <c r="AL30" s="232"/>
+      <c r="AM30" s="232"/>
+      <c r="AN30" s="232"/>
+      <c r="AO30" s="232"/>
+      <c r="AP30" s="232"/>
+    </row>
+    <row r="31" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="214"/>
+      <c r="B31" s="250" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="183"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S31" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="191"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="235"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="248"/>
+      <c r="AI31" s="232"/>
+      <c r="AJ31" s="232"/>
+      <c r="AK31" s="232"/>
+      <c r="AL31" s="232"/>
+      <c r="AM31" s="232"/>
+      <c r="AN31" s="232"/>
+      <c r="AO31" s="232"/>
+      <c r="AP31" s="232"/>
+    </row>
+    <row r="32" spans="1:42" s="232" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="250"/>
+      <c r="B32" s="250" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="183"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="252"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" s="191"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="253"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+    </row>
+    <row r="33" spans="1:42" s="232" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="250"/>
+      <c r="B33" s="250" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="254"/>
+      <c r="O33" s="252"/>
+      <c r="P33" s="255"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S33" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T33" s="191"/>
+      <c r="U33" s="226"/>
+      <c r="V33" s="253"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+    </row>
+    <row r="34" spans="1:42" s="232" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="250"/>
+      <c r="B34" s="250" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="254"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="255"/>
+      <c r="Q34" s="256"/>
+      <c r="R34" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S34" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T34" s="191"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
+      <c r="Y34" s="183"/>
+      <c r="Z34" s="183"/>
+      <c r="AC34" s="257" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD34" s="258" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE34" s="258" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF34" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG34" s="258" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="232" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="250"/>
+      <c r="B35" s="250" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="254"/>
+      <c r="O35" s="252"/>
+      <c r="P35" s="255"/>
+      <c r="Q35" s="256"/>
+      <c r="R35" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S35" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="191"/>
+      <c r="U35" s="259"/>
+      <c r="V35" s="259"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
+      <c r="Z35" s="183"/>
+      <c r="AC35" s="260" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD35" s="261">
+        <v>574474</v>
+      </c>
+      <c r="AE35" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF35" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG35" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH35" s="263"/>
+      <c r="AK35" s="264"/>
+    </row>
+    <row r="36" spans="1:42" s="232" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="250"/>
+      <c r="B36" s="250" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="254"/>
+      <c r="O36" s="252"/>
+      <c r="P36" s="255"/>
+      <c r="Q36" s="256"/>
+      <c r="R36" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S36" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="W36" s="183"/>
+      <c r="X36" s="183"/>
+      <c r="Y36" s="183"/>
+      <c r="Z36" s="183"/>
+      <c r="AC36" s="260" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD36" s="265">
+        <v>0.62850165485953546</v>
+      </c>
+      <c r="AE36" s="262" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF36" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG36" s="262" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="232" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="250"/>
+      <c r="B37" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="254"/>
+      <c r="O37" s="252"/>
+      <c r="P37" s="255"/>
+      <c r="Q37" s="256"/>
+      <c r="R37" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S37" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="W37" s="183"/>
+      <c r="X37" s="183"/>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="183"/>
+      <c r="AC37" s="260" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD37" s="265">
+        <v>0.41091886323006682</v>
+      </c>
+      <c r="AE37" s="262" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF37" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG37" s="262" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="214"/>
+      <c r="B38" s="250"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="254"/>
+      <c r="O38" s="252"/>
+      <c r="P38" s="255"/>
+      <c r="Q38" s="256"/>
+      <c r="R38" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S38" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T38" s="191"/>
+      <c r="U38" s="226"/>
+      <c r="V38" s="235"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="183"/>
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="183"/>
+      <c r="AA38" s="229"/>
+      <c r="AC38" s="260" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD38" s="261">
+        <v>1279.5481227610337</v>
+      </c>
+      <c r="AE38" s="262" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF38" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG38" s="262" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI38" s="232"/>
+      <c r="AJ38" s="232"/>
+      <c r="AK38" s="232"/>
+      <c r="AL38" s="232"/>
+      <c r="AM38" s="232"/>
+      <c r="AN38" s="232"/>
+      <c r="AO38" s="232"/>
+      <c r="AP38" s="232"/>
+    </row>
+    <row r="39" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="214"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="254"/>
+      <c r="O39" s="252"/>
+      <c r="P39" s="255"/>
+      <c r="Q39" s="256"/>
+      <c r="R39" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S39" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="191"/>
+      <c r="U39" s="226"/>
+      <c r="V39" s="235"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="229"/>
+      <c r="AC39" s="260" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD39" s="261">
+        <v>27190.931320064959</v>
+      </c>
+      <c r="AE39" s="262" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF39" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG39" s="262" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI39" s="232"/>
+      <c r="AJ39" s="232"/>
+      <c r="AK39" s="232"/>
+      <c r="AL39" s="232"/>
+      <c r="AM39" s="232"/>
+      <c r="AN39" s="232"/>
+      <c r="AO39" s="232"/>
+      <c r="AP39" s="232"/>
+    </row>
+    <row r="40" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="214"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="252"/>
+      <c r="P40" s="255"/>
+      <c r="Q40" s="256"/>
+      <c r="R40" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T40" s="191"/>
+      <c r="U40" s="226"/>
+      <c r="V40" s="235"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="183"/>
+      <c r="Y40" s="183"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="229"/>
+      <c r="AC40" s="260" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD40" s="265">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE40" s="262" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF40" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG40" s="262" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI40" s="232"/>
+      <c r="AJ40" s="232"/>
+      <c r="AK40" s="232"/>
+      <c r="AL40" s="232"/>
+      <c r="AM40" s="232"/>
+      <c r="AN40" s="232"/>
+      <c r="AO40" s="232"/>
+      <c r="AP40" s="232"/>
+    </row>
+    <row r="41" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="214"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="254"/>
+      <c r="O41" s="252"/>
+      <c r="P41" s="255"/>
+      <c r="Q41" s="256"/>
+      <c r="R41" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S41" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T41" s="191"/>
+      <c r="U41" s="226"/>
+      <c r="V41" s="235"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="229"/>
+      <c r="AC41" s="260" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD41" s="266">
+        <v>6.4978201825939804E-3</v>
+      </c>
+      <c r="AE41" s="262" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF41" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG41" s="262" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI41" s="232"/>
+      <c r="AJ41" s="232"/>
+      <c r="AK41" s="232"/>
+      <c r="AL41" s="232"/>
+      <c r="AM41" s="232"/>
+      <c r="AN41" s="232"/>
+      <c r="AO41" s="232"/>
+      <c r="AP41" s="232"/>
+    </row>
+    <row r="42" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="214"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="254"/>
+      <c r="O42" s="252"/>
+      <c r="P42" s="255"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S42" s="224">
+        <v>0.3</v>
+      </c>
+      <c r="T42" s="191"/>
+      <c r="U42" s="226"/>
+      <c r="V42" s="251"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="183"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="229"/>
+      <c r="AE42" s="231"/>
+      <c r="AF42" s="231"/>
+      <c r="AG42" s="231"/>
+      <c r="AI42" s="232"/>
+      <c r="AJ42" s="232"/>
+      <c r="AK42" s="232"/>
+      <c r="AL42" s="232"/>
+      <c r="AM42" s="232"/>
+      <c r="AN42" s="232"/>
+      <c r="AO42" s="232"/>
+      <c r="AP42" s="232"/>
+    </row>
+    <row r="43" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="214"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="254"/>
+      <c r="O43" s="252"/>
+      <c r="P43" s="255"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S43" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T43" s="191"/>
+      <c r="U43" s="226"/>
+      <c r="V43" s="235"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="229"/>
+      <c r="AC43" s="267"/>
+      <c r="AD43" s="268"/>
+      <c r="AE43" s="269"/>
+      <c r="AF43" s="269"/>
+      <c r="AG43" s="269"/>
+      <c r="AI43" s="232"/>
+      <c r="AJ43" s="232"/>
+      <c r="AK43" s="232"/>
+      <c r="AL43" s="232"/>
+      <c r="AM43" s="232"/>
+      <c r="AN43" s="232"/>
+      <c r="AO43" s="232"/>
+      <c r="AP43" s="232"/>
+    </row>
+    <row r="44" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="214"/>
+      <c r="B44" s="250"/>
+      <c r="C44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="254"/>
+      <c r="O44" s="252"/>
+      <c r="P44" s="255"/>
+      <c r="Q44" s="256"/>
+      <c r="R44" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S44" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T44" s="191"/>
+      <c r="U44" s="226"/>
+      <c r="V44" s="235"/>
+      <c r="W44" s="183"/>
+      <c r="X44" s="183"/>
+      <c r="Y44" s="183"/>
+      <c r="Z44" s="183"/>
+      <c r="AA44" s="229"/>
+      <c r="AC44" s="270"/>
+      <c r="AD44" s="271"/>
+      <c r="AE44" s="272"/>
+      <c r="AF44" s="272"/>
+      <c r="AG44" s="272"/>
+      <c r="AI44" s="232"/>
+      <c r="AJ44" s="232"/>
+      <c r="AK44" s="232"/>
+      <c r="AL44" s="232"/>
+      <c r="AM44" s="232"/>
+      <c r="AN44" s="232"/>
+      <c r="AO44" s="232"/>
+      <c r="AP44" s="232"/>
+    </row>
+    <row r="45" spans="1:42" s="230" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="214"/>
+      <c r="B45" s="250"/>
+      <c r="C45" s="183"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="252"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="254"/>
+      <c r="O45" s="252"/>
+      <c r="P45" s="255"/>
+      <c r="Q45" s="256"/>
+      <c r="R45" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S45" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T45" s="191"/>
+      <c r="U45" s="226"/>
+      <c r="V45" s="235"/>
+      <c r="W45" s="183"/>
+      <c r="X45" s="183"/>
+      <c r="Y45" s="183"/>
+      <c r="Z45" s="183"/>
+      <c r="AA45" s="229"/>
+      <c r="AC45" s="270"/>
+      <c r="AD45" s="271"/>
+      <c r="AE45" s="272"/>
+      <c r="AF45" s="272"/>
+      <c r="AG45" s="272"/>
+      <c r="AI45" s="273" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ45" s="274" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK45" s="274" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL45" s="274" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM45" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN45" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO45" s="232"/>
+      <c r="AP45" s="232"/>
+    </row>
+    <row r="46" spans="1:42" s="230" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="214"/>
+      <c r="B46" s="250"/>
+      <c r="C46" s="183"/>
+      <c r="E46" s="237"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="254"/>
+      <c r="O46" s="252"/>
+      <c r="P46" s="255"/>
+      <c r="Q46" s="256"/>
+      <c r="R46" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S46" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T46" s="191"/>
+      <c r="U46" s="226"/>
+      <c r="V46" s="235"/>
+      <c r="W46" s="183"/>
+      <c r="X46" s="183"/>
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="183"/>
+      <c r="AA46" s="229"/>
+      <c r="AC46" s="270"/>
+      <c r="AD46" s="271"/>
+      <c r="AE46" s="272"/>
+      <c r="AF46" s="272"/>
+      <c r="AG46" s="272"/>
+      <c r="AI46" s="273"/>
+      <c r="AJ46" s="274"/>
+      <c r="AK46" s="274"/>
+      <c r="AL46" s="274"/>
+      <c r="AM46" s="274"/>
+      <c r="AN46" s="274"/>
+      <c r="AO46" s="232"/>
+      <c r="AP46" s="232"/>
+    </row>
+    <row r="47" spans="1:42" s="230" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="214"/>
+      <c r="B47" s="250"/>
+      <c r="C47" s="183"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="252"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="254"/>
+      <c r="O47" s="252"/>
+      <c r="P47" s="255"/>
+      <c r="Q47" s="256"/>
+      <c r="R47" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S47" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T47" s="191"/>
+      <c r="U47" s="226"/>
+      <c r="V47" s="235"/>
+      <c r="W47" s="183"/>
+      <c r="X47" s="183"/>
+      <c r="Y47" s="183"/>
+      <c r="Z47" s="183"/>
+      <c r="AA47" s="229"/>
+      <c r="AC47" s="270"/>
+      <c r="AD47" s="271"/>
+      <c r="AE47" s="272"/>
+      <c r="AF47" s="272"/>
+      <c r="AG47" s="272"/>
+      <c r="AI47" s="275"/>
+      <c r="AJ47" s="276"/>
+      <c r="AK47" s="276"/>
+      <c r="AL47" s="276"/>
+      <c r="AM47" s="276"/>
+      <c r="AN47" s="276"/>
+      <c r="AO47" s="232"/>
+      <c r="AP47" s="232"/>
+    </row>
+    <row r="48" spans="1:42" s="230" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="214"/>
+      <c r="B48" s="250"/>
+      <c r="C48" s="183"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="183"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="254"/>
+      <c r="O48" s="252"/>
+      <c r="P48" s="255"/>
+      <c r="Q48" s="256"/>
+      <c r="R48" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="S48" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="T48" s="191"/>
+      <c r="U48" s="226"/>
+      <c r="V48" s="235"/>
+      <c r="W48" s="183"/>
+      <c r="X48" s="183"/>
+      <c r="Y48" s="183"/>
+      <c r="Z48" s="183"/>
+      <c r="AA48" s="229"/>
+      <c r="AC48" s="270"/>
+      <c r="AD48" s="271"/>
+      <c r="AE48" s="272"/>
+      <c r="AF48" s="272"/>
+      <c r="AG48" s="272"/>
+      <c r="AI48" s="277" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ48" s="278">
+        <v>9047250</v>
+      </c>
+      <c r="AK48" s="279">
+        <v>8832</v>
+      </c>
+      <c r="AL48" s="280">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AM48" s="281">
+        <v>38.6</v>
+      </c>
+      <c r="AN48" s="281">
+        <v>41.6</v>
+      </c>
+      <c r="AO48" s="232"/>
+      <c r="AP48" s="232"/>
+    </row>
+    <row r="49" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="282"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="252"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="254"/>
+      <c r="O49" s="252"/>
+      <c r="P49" s="255"/>
+      <c r="Q49" s="256"/>
+      <c r="R49" s="224"/>
+      <c r="S49" s="224"/>
+      <c r="T49" s="191"/>
+      <c r="U49" s="283"/>
+      <c r="AI49" s="277" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ49" s="278">
+        <v>4546765</v>
+      </c>
+      <c r="AK49" s="279">
+        <v>15184</v>
+      </c>
+      <c r="AL49" s="280">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AM49" s="281">
+        <v>28</v>
+      </c>
+      <c r="AN49" s="281">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="282"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="252"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="183"/>
+      <c r="M50" s="183"/>
+      <c r="N50" s="254"/>
+      <c r="O50" s="252"/>
+      <c r="P50" s="255"/>
+      <c r="Q50" s="256"/>
+      <c r="R50" s="224"/>
+      <c r="S50" s="224"/>
+      <c r="AI50" s="277" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ50" s="278">
+        <v>6965456</v>
+      </c>
+      <c r="AK50" s="279">
+        <v>11331</v>
+      </c>
+      <c r="AL50" s="280">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AM50" s="281">
+        <v>21.5</v>
+      </c>
+      <c r="AN50" s="281">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="282"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="183"/>
+      <c r="N51" s="254"/>
+      <c r="O51" s="252"/>
+      <c r="P51" s="255"/>
+      <c r="Q51" s="256"/>
+      <c r="R51" s="224"/>
+      <c r="S51" s="224"/>
+      <c r="AI51" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ51" s="278">
+        <v>765326</v>
+      </c>
+      <c r="AK51" s="279">
+        <v>8891</v>
+      </c>
+      <c r="AL51" s="280">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AM51" s="281">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AN51" s="281">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="282"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="183"/>
+      <c r="M52" s="183"/>
+      <c r="R52" s="284"/>
+      <c r="S52" s="284"/>
+      <c r="AI52" s="277" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ52" s="278">
+        <v>3309890</v>
+      </c>
+      <c r="AK52" s="279">
+        <v>5698</v>
+      </c>
+      <c r="AL52" s="280">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AM52" s="281">
+        <v>29.6</v>
+      </c>
+      <c r="AN52" s="281">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="282"/>
+      <c r="C53" s="285"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="R53" s="284"/>
+      <c r="S53" s="284"/>
+      <c r="AI53" s="277" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ53" s="278">
+        <v>1973882</v>
+      </c>
+      <c r="AK53" s="279">
+        <v>20266</v>
+      </c>
+      <c r="AL53" s="280">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AM53" s="281">
+        <v>46.2</v>
+      </c>
+      <c r="AN53" s="281">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="282"/>
+      <c r="C54" s="285"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="AI54" s="277" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ54" s="278">
+        <v>977467</v>
+      </c>
+      <c r="AK54" s="279">
+        <v>12985</v>
+      </c>
+      <c r="AL54" s="280">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AM54" s="281">
+        <v>22.7</v>
+      </c>
+      <c r="AN54" s="281">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="282"/>
+      <c r="C55" s="286"/>
+      <c r="J55" s="184"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="AJ55" s="287">
+        <f>+SUM(AJ48:AJ54)</f>
+        <v>27586036</v>
+      </c>
+    </row>
+    <row r="56" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="282"/>
+      <c r="C56" s="286"/>
+      <c r="L56" s="183"/>
+      <c r="M56" s="183"/>
+    </row>
+    <row r="57" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="282"/>
+      <c r="C57" s="285"/>
+    </row>
+    <row r="58" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="286"/>
+      <c r="C58" s="285"/>
+      <c r="AJ58" s="255">
+        <f>AJ55-'[1]LOCFUND EEFF Summary'!B6</f>
+        <v>-0.41000000387430191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="285"/>
+    </row>
+    <row r="60" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="K63" s="183"/>
+      <c r="L63" s="183"/>
+      <c r="M63" s="183"/>
+    </row>
+    <row r="64" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="183"/>
+      <c r="L64" s="183"/>
+      <c r="M64" s="183"/>
+      <c r="AP64" s="288"/>
+      <c r="AQ64" s="289" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR64" s="289" t="str">
+        <f>+AK45</f>
+        <v>GDP USD (e)</v>
+      </c>
+      <c r="AS64" s="289" t="str">
+        <f>+AL45</f>
+        <v>HDI (f)</v>
+      </c>
+      <c r="AT64" s="289" t="str">
+        <f>+AM45</f>
+        <v>% NPL (g)</v>
+      </c>
+      <c r="AU64" s="289" t="str">
+        <f>+AN45</f>
+        <v>Gini Coefficient (h)</v>
+      </c>
+    </row>
+    <row r="65" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="183"/>
+      <c r="L65" s="183"/>
+      <c r="M65" s="183"/>
+      <c r="AP65" s="277">
+        <v>1</v>
+      </c>
+      <c r="AQ65" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="AR65" s="279">
+        <v>22033.945309320345</v>
+      </c>
+      <c r="AS65" s="290">
+        <v>0.83</v>
+      </c>
+      <c r="AT65" s="281">
+        <v>25.7</v>
+      </c>
+      <c r="AU65" s="291">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="66" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="183"/>
+      <c r="L66" s="183"/>
+      <c r="M66" s="183"/>
+      <c r="AP66" s="277">
+        <v>2</v>
+      </c>
+      <c r="AQ66" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR66" s="279">
+        <v>15638.829897398775</v>
+      </c>
+      <c r="AS66" s="290">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AT66" s="281">
+        <v>31.5</v>
+      </c>
+      <c r="AU66" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="183"/>
+      <c r="L67" s="183"/>
+      <c r="M67" s="183"/>
+      <c r="R67" s="256"/>
+      <c r="S67" s="256"/>
+      <c r="T67" s="256"/>
+      <c r="U67" s="256"/>
+      <c r="V67" s="256"/>
+      <c r="AP67" s="277">
+        <v>3</v>
+      </c>
+      <c r="AQ67" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR67" s="279">
+        <v>7004.9123012291548</v>
+      </c>
+      <c r="AS67" s="290">
+        <v>0.72</v>
+      </c>
+      <c r="AT67" s="281">
+        <v>41</v>
+      </c>
+      <c r="AU67" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="183"/>
+      <c r="L68" s="183"/>
+      <c r="M68" s="183"/>
+      <c r="R68" s="256"/>
+      <c r="S68" s="256"/>
+      <c r="T68" s="256"/>
+      <c r="U68" s="256"/>
+      <c r="V68" s="256"/>
+      <c r="AA68" s="292"/>
+      <c r="AP68" s="277">
+        <v>4</v>
+      </c>
+      <c r="AQ68" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR68" s="279">
+        <v>14651.61618093461</v>
+      </c>
+      <c r="AS68" s="290">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AT68" s="281">
+        <v>4.2</v>
+      </c>
+      <c r="AU68" s="291">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="69" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="183"/>
+      <c r="L69" s="183"/>
+      <c r="M69" s="183"/>
+      <c r="R69" s="256"/>
+      <c r="S69" s="256"/>
+      <c r="T69" s="256"/>
+      <c r="U69" s="256"/>
+      <c r="V69" s="256"/>
+      <c r="AA69" s="292"/>
+      <c r="AP69" s="277">
+        <v>5</v>
+      </c>
+      <c r="AQ69" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR69" s="279">
+        <v>19642.417853166826</v>
+      </c>
+      <c r="AS69" s="290">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="AT69" s="281">
+        <v>21.7</v>
+      </c>
+      <c r="AU69" s="291">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="183"/>
+      <c r="L70" s="183"/>
+      <c r="M70" s="183"/>
+      <c r="R70" s="256"/>
+      <c r="S70" s="256"/>
+      <c r="T70" s="256"/>
+      <c r="U70" s="256"/>
+      <c r="V70" s="256"/>
+      <c r="AA70" s="292"/>
+      <c r="AP70" s="277">
+        <v>6</v>
+      </c>
+      <c r="AQ70" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR70" s="279">
+        <v>24226.150887899796</v>
+      </c>
+      <c r="AS70" s="290">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AT70" s="281">
+        <v>14.4</v>
+      </c>
+      <c r="AU70" s="291">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="71" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="183"/>
+      <c r="L71" s="183"/>
+      <c r="M71" s="183"/>
+      <c r="R71" s="256"/>
+      <c r="S71" s="256"/>
+      <c r="T71" s="256"/>
+      <c r="U71" s="256"/>
+      <c r="V71" s="256"/>
+      <c r="AA71" s="292"/>
+      <c r="AP71" s="277">
+        <v>7</v>
+      </c>
+      <c r="AQ71" s="277" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR71" s="279">
+        <v>18419.034263015157</v>
+      </c>
+      <c r="AS71" s="290">
+        <v>0.745</v>
+      </c>
+      <c r="AT71" s="281">
+        <v>30.5</v>
+      </c>
+      <c r="AU71" s="291">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="72" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="183"/>
+      <c r="L72" s="183"/>
+      <c r="M72" s="183"/>
+      <c r="R72" s="256"/>
+      <c r="S72" s="256"/>
+      <c r="T72" s="256"/>
+      <c r="U72" s="256"/>
+      <c r="V72" s="256"/>
+      <c r="AA72" s="292"/>
+      <c r="AP72" s="277">
+        <v>8</v>
+      </c>
+      <c r="AQ72" s="277" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR72" s="279">
+        <v>8637.5553249751792</v>
+      </c>
+      <c r="AS72" s="290">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AT72" s="281">
+        <v>59.3</v>
+      </c>
+      <c r="AU72" s="291">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="73" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="183"/>
+      <c r="L73" s="183"/>
+      <c r="M73" s="183"/>
+      <c r="R73" s="256"/>
+      <c r="S73" s="256"/>
+      <c r="T73" s="256"/>
+      <c r="U73" s="256"/>
+      <c r="V73" s="256"/>
+      <c r="AA73" s="292"/>
+      <c r="AP73" s="277">
+        <v>9</v>
+      </c>
+      <c r="AQ73" s="277" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR73" s="279">
+        <v>1728.9100699872324</v>
+      </c>
+      <c r="AS73" s="290">
+        <v>0.503</v>
+      </c>
+      <c r="AT73" s="281">
+        <v>58.5</v>
+      </c>
+      <c r="AU73" s="291">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="183"/>
+      <c r="L74" s="183"/>
+      <c r="M74" s="183"/>
+      <c r="R74" s="256"/>
+      <c r="S74" s="256"/>
+      <c r="T74" s="256"/>
+      <c r="U74" s="256"/>
+      <c r="V74" s="256"/>
+      <c r="AA74" s="292"/>
+      <c r="AP74" s="277">
+        <v>10</v>
+      </c>
+      <c r="AQ74" s="277" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR74" s="279">
+        <v>9761.4985221052757</v>
+      </c>
+      <c r="AS74" s="290">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AT74" s="281">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AU74" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="183"/>
+      <c r="L75" s="183"/>
+      <c r="M75" s="183"/>
+      <c r="R75" s="256"/>
+      <c r="S75" s="256"/>
+      <c r="T75" s="256"/>
+      <c r="U75" s="256"/>
+      <c r="V75" s="256"/>
+      <c r="AA75" s="292"/>
+      <c r="AP75" s="277">
+        <v>11</v>
+      </c>
+      <c r="AQ75" s="277" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR75" s="279">
+        <v>5407.1047020797114</v>
+      </c>
+      <c r="AS75" s="290">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AT75" s="281">
+        <v>29.6</v>
+      </c>
+      <c r="AU75" s="291">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="76" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="183"/>
+      <c r="L76" s="183"/>
+      <c r="M76" s="183"/>
+      <c r="R76" s="256"/>
+      <c r="S76" s="256"/>
+      <c r="T76" s="256"/>
+      <c r="U76" s="256"/>
+      <c r="V76" s="256"/>
+      <c r="AA76" s="292"/>
+      <c r="AP76" s="277">
+        <v>12</v>
+      </c>
+      <c r="AQ76" s="277" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR76" s="279">
+        <v>31458.692625521315</v>
+      </c>
+      <c r="AS76" s="290">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="AT76" s="281">
+        <v>23</v>
+      </c>
+      <c r="AU76" s="291">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="77" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="183"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="183"/>
+      <c r="R77" s="256"/>
+      <c r="S77" s="256"/>
+      <c r="T77" s="256"/>
+      <c r="U77" s="256"/>
+      <c r="V77" s="256"/>
+      <c r="AA77" s="292"/>
+      <c r="AP77" s="277">
+        <v>13</v>
+      </c>
+      <c r="AQ77" s="277" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR77" s="279">
+        <v>12684.596191076354</v>
+      </c>
+      <c r="AS77" s="290">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AT77" s="281">
+        <v>22.2</v>
+      </c>
+      <c r="AU77" s="291">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="78" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="183"/>
+      <c r="L78" s="183"/>
+      <c r="M78" s="183"/>
+      <c r="R78" s="256"/>
+      <c r="S78" s="256"/>
+      <c r="T78" s="256"/>
+      <c r="U78" s="256"/>
+      <c r="V78" s="256"/>
+      <c r="AA78" s="292"/>
+      <c r="AP78" s="277">
+        <v>14</v>
+      </c>
+      <c r="AQ78" s="277" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR78" s="279">
+        <v>16328.686115677745</v>
+      </c>
+      <c r="AS78" s="290">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AT78" s="281">
+        <v>70</v>
+      </c>
+      <c r="AU78" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="183"/>
+      <c r="L79" s="183"/>
+      <c r="M79" s="183"/>
+      <c r="R79" s="256"/>
+      <c r="S79" s="256"/>
+      <c r="T79" s="256"/>
+      <c r="U79" s="256"/>
+      <c r="V79" s="256"/>
+      <c r="AA79" s="292"/>
+      <c r="AP79" s="277">
+        <v>15</v>
+      </c>
+      <c r="AQ79" s="277" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR79" s="279">
+        <v>26175.951728287968</v>
+      </c>
+      <c r="AS79" s="290">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AT79" s="281">
+        <v>20</v>
+      </c>
+      <c r="AU79" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="293"/>
+      <c r="L80" s="183"/>
+      <c r="M80" s="183"/>
+      <c r="R80" s="256"/>
+      <c r="S80" s="256"/>
+      <c r="T80" s="256"/>
+      <c r="U80" s="256"/>
+      <c r="V80" s="256"/>
+      <c r="AA80" s="292"/>
+      <c r="AP80" s="277">
+        <v>16</v>
+      </c>
+      <c r="AQ80" s="277" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR80" s="279">
+        <v>21561.062052917718</v>
+      </c>
+      <c r="AS80" s="290">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AT80" s="281">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AU80" s="291">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="293"/>
+      <c r="R81" s="256"/>
+      <c r="S81" s="256"/>
+      <c r="T81" s="256"/>
+      <c r="U81" s="256"/>
+      <c r="V81" s="256"/>
+      <c r="AA81" s="292"/>
+      <c r="AP81" s="277">
+        <v>17</v>
+      </c>
+      <c r="AQ81" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR81" s="279" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS81" s="290">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AT81" s="281">
+        <v>19.7</v>
+      </c>
+      <c r="AU81" s="291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="6:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="293"/>
+      <c r="R82" s="256"/>
+      <c r="S82" s="256"/>
+      <c r="AA82" s="292"/>
+      <c r="AP82" s="277"/>
+      <c r="AQ82" s="277"/>
+      <c r="AR82" s="279"/>
+      <c r="AS82" s="290"/>
+      <c r="AT82" s="281"/>
+      <c r="AU82" s="291"/>
+    </row>
+    <row r="83" spans="6:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="293"/>
+      <c r="R83" s="256"/>
+      <c r="S83" s="256"/>
+      <c r="AA83" s="292"/>
+      <c r="AP83" s="277"/>
+      <c r="AQ83" s="277"/>
+      <c r="AR83" s="279"/>
+      <c r="AS83" s="290"/>
+      <c r="AT83" s="281"/>
+      <c r="AU83" s="291"/>
+    </row>
+    <row r="84" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="F84" s="293"/>
+      <c r="R84" s="256"/>
+      <c r="S84" s="256"/>
+      <c r="AA84" s="292"/>
+    </row>
+    <row r="85" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="R85" s="256"/>
+      <c r="S85" s="256"/>
+      <c r="AA85" s="292"/>
+    </row>
+    <row r="86" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="AA86" s="292"/>
+    </row>
+    <row r="87" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="AA87" s="292"/>
+    </row>
+    <row r="91" spans="6:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="6:47" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="6:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="6:47" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="T96" s="294"/>
+      <c r="U96" s="294"/>
+      <c r="V96" s="185"/>
+    </row>
+    <row r="97" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AI45:AI47"/>
+    <mergeCell ref="AJ45:AJ47"/>
+    <mergeCell ref="AK45:AK47"/>
+    <mergeCell ref="AL45:AL47"/>
+    <mergeCell ref="AM45:AM47"/>
+    <mergeCell ref="AN45:AN47"/>
+  </mergeCells>
+  <pageMargins left="2.1298031496062992" right="0.23622047244094491" top="0.74803149606299213" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2C2EE-28CB-4F53-9CD1-D9BC7D074734}">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -9855,11 +14423,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29CF458-1089-4FBA-9086-15E638937910}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9944,10 +14512,10 @@
       <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="180"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="56">
         <f>+SUM(C2:C3)</f>
         <v>9000000</v>
@@ -10063,10 +14631,10 @@
       <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="56">
         <f>+SUM(C5:C8)</f>
         <v>6940000</v>
@@ -10141,10 +14709,10 @@
       <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="56">
         <f>+SUM(C10:C11)</f>
         <v>3300699.2</v>
@@ -10195,10 +14763,10 @@
       <c r="I13" s="88"/>
     </row>
     <row r="14" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="56">
         <f>+SUM(C13:C13)</f>
         <v>750000</v>
@@ -10249,10 +14817,10 @@
       <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="177"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="56">
         <f>SUM(C15:C15)</f>
         <v>1923776.24</v>
@@ -10303,10 +14871,10 @@
       <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="177"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="56">
         <f>SUM(C17:C17)</f>
         <v>4585299.08</v>
@@ -10356,10 +14924,10 @@
       <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="177"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="56">
         <f>SUM(C19:C19)</f>
         <v>963239.21</v>
@@ -10383,10 +14951,10 @@
       <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="101">
         <f>+C4+C9+C12+C14+C16+C18+C20</f>
         <v>27463013.729999997</v>
